--- a/docs/Product backlog.xlsx
+++ b/docs/Product backlog.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27629"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="0" windowWidth="29040" windowHeight="19520" tabRatio="500"/>
+    <workbookView xWindow="-60" yWindow="0" windowWidth="29740" windowHeight="18800" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Burndown chart" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
   <si>
     <t>Feature</t>
   </si>
@@ -286,10 +287,46 @@
 2. Vaar met een schip rond en kijk of al het water bevaren kan worden en of tegen de kade varen het schip crasht.</t>
   </si>
   <si>
-    <t>Casper</t>
-  </si>
-  <si>
     <t>Task</t>
+  </si>
+  <si>
+    <t>CK</t>
+  </si>
+  <si>
+    <t>Worked</t>
+  </si>
+  <si>
+    <t>YK</t>
+  </si>
+  <si>
+    <t>YK/CK</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Total work</t>
+  </si>
+  <si>
+    <t>Sprint work</t>
+  </si>
+  <si>
+    <t>Realwork</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Est left</t>
+  </si>
+  <si>
+    <t>End</t>
+  </si>
+  <si>
+    <t>Actual work</t>
+  </si>
+  <si>
+    <t>CK/YK</t>
   </si>
 </sst>
 </file>
@@ -497,11 +534,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="30">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -587,7 +648,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="30">
+  <cellStyles count="54">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -615,6 +676,30 @@
     <cellStyle name="Gevolgde hyperlink" xfId="27" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
@@ -622,6 +707,283 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.120518340695218"/>
+          <c:y val="0.017725258493353"/>
+          <c:w val="0.650213366621855"/>
+          <c:h val="0.886716058572442"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Estimated work</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown chart'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>End</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown chart'!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Real work</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown chart'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>End</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown chart'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Actual work</c:v>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Burndown chart'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>End</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Burndown chart'!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="-2135332248"/>
+        <c:axId val="-2135455768"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2135332248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135455768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2135455768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2135332248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -946,10 +1308,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -962,11 +1324,11 @@
     <col min="7" max="8" width="43.33203125" customWidth="1"/>
     <col min="9" max="9" width="12.83203125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" customWidth="1"/>
+    <col min="11" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25">
+    <row r="1" spans="1:13" ht="25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -975,12 +1337,12 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" customHeight="1">
+    <row r="2" spans="1:13" ht="16" customHeight="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>33</v>
       </c>
@@ -995,7 +1357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="B4" s="10" t="s">
         <v>34</v>
       </c>
@@ -1007,25 +1369,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="B5" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="B6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="B7" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="3"/>
     </row>
-    <row r="9" spans="1:12" s="8" customFormat="1">
+    <row r="9" spans="1:13" s="8" customFormat="1">
       <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
@@ -1045,7 +1407,7 @@
         <v>16</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>4</v>
@@ -1060,10 +1422,13 @@
         <v>6</v>
       </c>
       <c r="L9" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:13" ht="30">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -1071,7 +1436,7 @@
         <v>58</v>
       </c>
       <c r="C10" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" s="17" t="s">
         <v>30</v>
@@ -1093,11 +1458,12 @@
         <v>1</v>
       </c>
       <c r="K10" s="17"/>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="30">
+    <row r="11" spans="1:13" ht="30">
       <c r="A11" s="15">
         <v>2</v>
       </c>
@@ -1105,7 +1471,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>30</v>
@@ -1127,11 +1493,12 @@
         <v>1</v>
       </c>
       <c r="K11" s="17"/>
-      <c r="L11" s="18" t="s">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="60">
+    <row r="12" spans="1:13" ht="60">
       <c r="A12" s="15">
         <v>3</v>
       </c>
@@ -1139,7 +1506,7 @@
         <v>59</v>
       </c>
       <c r="C12" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" s="17" t="s">
         <v>30</v>
@@ -1161,11 +1528,12 @@
         <v>1</v>
       </c>
       <c r="K12" s="17"/>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="45">
+    <row r="13" spans="1:13" ht="45">
       <c r="A13" s="15">
         <v>4</v>
       </c>
@@ -1173,7 +1541,7 @@
         <v>60</v>
       </c>
       <c r="C13" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>30</v>
@@ -1195,11 +1563,12 @@
         <v>1</v>
       </c>
       <c r="K13" s="17"/>
-      <c r="L13" s="18" t="s">
+      <c r="L13" s="18"/>
+      <c r="M13" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="45">
+    <row r="14" spans="1:13" ht="45">
       <c r="A14" s="15">
         <v>5</v>
       </c>
@@ -1207,7 +1576,7 @@
         <v>58</v>
       </c>
       <c r="C14" s="17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" s="17" t="s">
         <v>30</v>
@@ -1229,11 +1598,12 @@
         <v>1</v>
       </c>
       <c r="K14" s="17"/>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="18"/>
+      <c r="M14" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30">
+    <row r="15" spans="1:13" ht="30">
       <c r="A15" s="21">
         <v>6</v>
       </c>
@@ -1241,7 +1611,7 @@
         <v>60</v>
       </c>
       <c r="C15" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>34</v>
@@ -1262,12 +1632,17 @@
       <c r="J15" s="22">
         <v>2</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="60">
+      <c r="K15" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="23">
+        <v>2</v>
+      </c>
+      <c r="M15" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="60">
       <c r="A16" s="21">
         <v>7</v>
       </c>
@@ -1296,12 +1671,17 @@
       <c r="J16" s="22">
         <v>1</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="45">
+      <c r="K16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="23">
+        <v>1</v>
+      </c>
+      <c r="M16" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="45">
       <c r="A17" s="21">
         <v>8</v>
       </c>
@@ -1330,12 +1710,17 @@
       <c r="J17" s="22">
         <v>1</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="45">
+      <c r="K17" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="L17" s="23">
+        <v>2</v>
+      </c>
+      <c r="M17" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="45">
       <c r="A18" s="21">
         <v>9</v>
       </c>
@@ -1364,12 +1749,17 @@
       <c r="J18" s="22">
         <v>3</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45">
+      <c r="K18" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L18" s="23">
+        <v>2</v>
+      </c>
+      <c r="M18" s="23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="45">
       <c r="A19" s="21">
         <v>10</v>
       </c>
@@ -1398,12 +1788,17 @@
       <c r="J19" s="22">
         <v>2</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="75">
+      <c r="K19" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="L19" s="23">
+        <v>2</v>
+      </c>
+      <c r="M19" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="75">
       <c r="A20" s="21">
         <v>10</v>
       </c>
@@ -1432,12 +1827,17 @@
       <c r="J20" s="22">
         <v>3</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="45">
+      <c r="K20" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="23">
+        <v>1</v>
+      </c>
+      <c r="M20" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="45">
       <c r="A21" s="21">
         <v>11</v>
       </c>
@@ -1466,12 +1866,17 @@
       <c r="J21" s="22">
         <v>2</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="45">
+      <c r="K21" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="23">
+        <v>2</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="45">
       <c r="A22" s="21">
         <v>12</v>
       </c>
@@ -1479,7 +1884,7 @@
         <v>60</v>
       </c>
       <c r="C22" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="22" t="s">
         <v>34</v>
@@ -1500,12 +1905,17 @@
       <c r="J22" s="22">
         <v>2</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="45">
+      <c r="K22" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="23">
+        <v>2</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="45">
       <c r="A23" s="21">
         <v>13</v>
       </c>
@@ -1513,7 +1923,7 @@
         <v>59</v>
       </c>
       <c r="C23" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="22" t="s">
         <v>34</v>
@@ -1534,12 +1944,17 @@
       <c r="J23" s="22">
         <v>3</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="75">
+      <c r="K23" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="23">
+        <v>3</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="75">
       <c r="A24" s="21">
         <v>13</v>
       </c>
@@ -1569,13 +1984,16 @@
         <v>4</v>
       </c>
       <c r="K24" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="L24" s="24" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>88</v>
+      </c>
+      <c r="L24" s="23">
+        <v>3</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="7"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1588,8 +2006,9 @@
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
       <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="7"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1602,8 +2021,9 @@
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
       <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1616,8 +2036,9 @@
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1630,8 +2051,9 @@
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1644,8 +2066,9 @@
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
       <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1658,8 +2081,9 @@
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
       <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1672,8 +2096,9 @@
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
       <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1686,8 +2111,9 @@
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
       <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1700,8 +2126,9 @@
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
       <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1714,8 +2141,9 @@
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
       <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1728,8 +2156,9 @@
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1742,8 +2171,9 @@
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
       <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1756,8 +2186,9 @@
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
       <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1770,8 +2201,9 @@
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
       <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1784,8 +2216,9 @@
       <c r="J39" s="7"/>
       <c r="K39" s="7"/>
       <c r="L39" s="7"/>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1798,8 +2231,9 @@
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
       <c r="L40" s="7"/>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="7"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1812,8 +2246,9 @@
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
       <c r="L41" s="7"/>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="7"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1826,8 +2261,9 @@
       <c r="J42" s="7"/>
       <c r="K42" s="7"/>
       <c r="L42" s="7"/>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="7"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1840,8 +2276,9 @@
       <c r="J43" s="7"/>
       <c r="K43" s="7"/>
       <c r="L43" s="7"/>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="7"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1854,8 +2291,9 @@
       <c r="J44" s="7"/>
       <c r="K44" s="7"/>
       <c r="L44" s="7"/>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="7"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1868,8 +2306,9 @@
       <c r="J45" s="7"/>
       <c r="K45" s="7"/>
       <c r="L45" s="7"/>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="7"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1882,8 +2321,9 @@
       <c r="J46" s="7"/>
       <c r="K46" s="7"/>
       <c r="L46" s="7"/>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="7"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1896,8 +2336,9 @@
       <c r="J47" s="7"/>
       <c r="K47" s="7"/>
       <c r="L47" s="7"/>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="7"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1910,8 +2351,9 @@
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="7"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
@@ -1924,8 +2366,9 @@
       <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="6"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -1938,6 +2381,7 @@
       <c r="J50" s="5"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -1953,4 +2397,158 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="8" style="8" customWidth="1"/>
+    <col min="2" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="8" customFormat="1">
+      <c r="A1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <f>SUM('Product Backlog'!$J:$J)</f>
+        <v>28</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>28</v>
+      </c>
+      <c r="D2">
+        <f>B2-SUM($F$2:$F$4)+SUM($G$2:$G$4)</f>
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <f>SUMIF('Product Backlog'!$C:$C, $A2, 'Product Backlog'!$J:$J)</f>
+        <v>23</v>
+      </c>
+      <c r="F2">
+        <f>SUMIFS('Product Backlog'!$J:$J, 'Product Backlog'!$C:$C, $A2, 'Product Backlog'!$L:$L, "&gt;0")</f>
+        <v>23</v>
+      </c>
+      <c r="G2">
+        <f>SUMIF('Product Backlog'!$C:$C, $A2, 'Product Backlog'!$L:$L)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <f>B2-F2</f>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <f>C2-E2</f>
+        <v>5</v>
+      </c>
+      <c r="D3">
+        <f>B3-SUM($F$2:$F$4)+SUM($G$2:$G$4)</f>
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <f>SUMIF('Product Backlog'!$C:$C, $A3, 'Product Backlog'!$J:$J)</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>SUMIFS('Product Backlog'!$J:$J, 'Product Backlog'!$C:$C, $A3, 'Product Backlog'!$L:$L, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>SUMIF('Product Backlog'!$C:$C, $A3, 'Product Backlog'!$L:$L)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <f>B3-F3</f>
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <f>C3-E3</f>
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <f>B4-SUM($F$2:$F$4)+SUM($G$2:$G$4)</f>
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <f>SUMIF('Product Backlog'!$C:$C, $A4, 'Product Backlog'!$J:$J)</f>
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <f>SUMIFS('Product Backlog'!$J:$J, 'Product Backlog'!$C:$C, $A4, 'Product Backlog'!$L:$L, "&gt;0")</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>SUMIF('Product Backlog'!$C:$C, $A4, 'Product Backlog'!$L:$L)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5">
+        <f>B4-F4</f>
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <f>C4-E4</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>B5-SUM($F$2:$F$4)+SUM($G$2:$G$4)</f>
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/docs/Product backlog.xlsx
+++ b/docs/Product backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="104">
   <si>
     <t>Feature</t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>CK/YK</t>
+  </si>
+  <si>
+    <t>The game</t>
+  </si>
+  <si>
+    <t>Alles</t>
+  </si>
+  <si>
+    <t>Presentatie</t>
   </si>
 </sst>
 </file>
@@ -534,7 +543,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -589,8 +598,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -647,8 +663,23 @@
     <xf numFmtId="0" fontId="4" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="61">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -700,6 +731,13 @@
     <cellStyle name="Gevolgde hyperlink" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
@@ -772,13 +810,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0</c:v>
@@ -821,16 +859,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>28.0</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -870,16 +908,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>25.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -896,11 +934,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2135332248"/>
-        <c:axId val="-2135455768"/>
+        <c:axId val="2138759080"/>
+        <c:axId val="2138761672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135332248"/>
+        <c:axId val="2138759080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -910,7 +948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135455768"/>
+        <c:crossAx val="2138761672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -918,7 +956,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135455768"/>
+        <c:axId val="2138761672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -929,7 +967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135332248"/>
+        <c:crossAx val="2138759080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1308,10 +1346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M50"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1490,7 +1528,7 @@
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="17"/>
       <c r="L11" s="18"/>
@@ -1560,7 +1598,7 @@
       </c>
       <c r="I13" s="17"/>
       <c r="J13" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K13" s="17"/>
       <c r="L13" s="18"/>
@@ -1595,7 +1633,7 @@
       </c>
       <c r="I14" s="17"/>
       <c r="J14" s="17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
@@ -1636,7 +1674,7 @@
         <v>88</v>
       </c>
       <c r="L15" s="23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" s="23" t="s">
         <v>96</v>
@@ -1956,7 +1994,7 @@
     </row>
     <row r="24" spans="1:13" ht="75">
       <c r="A24" s="21">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>58</v>
@@ -1994,64 +2032,126 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
+      <c r="A25" s="28">
+        <v>15</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="28">
+        <v>2</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="F25" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28">
+        <v>24</v>
+      </c>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
+      <c r="A26" s="27">
+        <v>16</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="27">
+        <v>3</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F26" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27">
+        <v>24</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="27" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
+      <c r="A27" s="30">
+        <v>17</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="30">
+        <v>3</v>
+      </c>
+      <c r="D27" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30">
+        <v>24</v>
+      </c>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
+      <c r="A28" s="7">
+        <v>18</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="7">
+        <v>4</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
+      <c r="J28" s="7">
+        <v>8</v>
+      </c>
       <c r="K28" s="7"/>
       <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
+      <c r="M28" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="7"/>
@@ -2354,34 +2454,49 @@
       <c r="M48" s="7"/>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="6"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -2404,7 +2519,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2443,19 +2558,19 @@
       </c>
       <c r="B2">
         <f>SUM('Product Backlog'!$J:$J)</f>
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="C2">
         <f>B2</f>
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="D2">
-        <f>B2-SUM($F$2:$F$4)+SUM($G$2:$G$4)</f>
-        <v>25</v>
+        <f>B2-SUM($F2:$F$4)+SUM($G2:$G$4)</f>
+        <v>110</v>
       </c>
       <c r="E2">
         <f>SUMIF('Product Backlog'!$C:$C, $A2, 'Product Backlog'!$J:$J)</f>
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F2">
         <f>SUMIFS('Product Backlog'!$J:$J, 'Product Backlog'!$C:$C, $A2, 'Product Backlog'!$L:$L, "&gt;0")</f>
@@ -2463,7 +2578,7 @@
       </c>
       <c r="G2">
         <f>SUMIF('Product Backlog'!$C:$C, $A2, 'Product Backlog'!$L:$L)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -2472,19 +2587,19 @@
       </c>
       <c r="B3">
         <f>B2-F2</f>
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C3">
         <f>C2-E2</f>
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <f>B3-SUM($F$2:$F$4)+SUM($G$2:$G$4)</f>
-        <v>2</v>
+        <f>B3-SUM($F3:$F$4)+SUM($G3:$G$4)</f>
+        <v>89</v>
       </c>
       <c r="E3">
         <f>SUMIF('Product Backlog'!$C:$C, $A3, 'Product Backlog'!$J:$J)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="F3">
         <f>SUMIFS('Product Backlog'!$J:$J, 'Product Backlog'!$C:$C, $A3, 'Product Backlog'!$L:$L, "&gt;0")</f>
@@ -2501,19 +2616,19 @@
       </c>
       <c r="B4">
         <f>B3-F3</f>
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C4">
         <f>C3-E3</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <f>B4-SUM($F$2:$F$4)+SUM($G$2:$G$4)</f>
-        <v>2</v>
+        <f>B4-SUM($F4:$F$4)+SUM($G4:$G$4)</f>
+        <v>89</v>
       </c>
       <c r="E4">
         <f>SUMIF('Product Backlog'!$C:$C, $A4, 'Product Backlog'!$J:$J)</f>
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F4">
         <f>SUMIFS('Product Backlog'!$J:$J, 'Product Backlog'!$C:$C, $A4, 'Product Backlog'!$L:$L, "&gt;0")</f>
@@ -2530,15 +2645,15 @@
       </c>
       <c r="B5">
         <f>B4-F4</f>
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C5">
         <f>C4-E4</f>
         <v>0</v>
       </c>
       <c r="D5">
-        <f>B5-SUM($F$2:$F$4)+SUM($G$2:$G$4)</f>
-        <v>2</v>
+        <f>B5</f>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Product backlog.xlsx
+++ b/docs/Product backlog.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Casper\Documents\GitHub\CasperHRO\GoRoffaGo\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="Product Backlog" sheetId="1" r:id="rId4"/>
-    <sheet name="Burndown chart" sheetId="2" r:id="rId5"/>
+    <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
+    <sheet name="Burndown chart" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="217">
   <si>
     <t>GoRoffaGo</t>
   </si>
@@ -651,7 +659,6 @@
   <si>
     <t>Presentatie</t>
   </si>
-  <si/>
   <si>
     <t>Total work</t>
   </si>
@@ -677,39 +684,21 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="20"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
@@ -1581,369 +1570,324 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="104">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="55" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="56" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="57" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="fffdeada"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd6d4ca"/>
-      <rgbColor rgb="ffd2dae4"/>
-      <rgbColor rgb="fff2dbdb"/>
-      <rgbColor rgb="ffeaf1dd"/>
-      <rgbColor rgb="ff92cddc"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="fff2f2f2"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ffff6600"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff808080"/>
-      <rgbColor rgb="ffc5d9f1"/>
-      <rgbColor rgb="fffeffff"/>
-      <rgbColor rgb="ff878787"/>
-      <rgbColor rgb="ff4a7ebb"/>
-      <rgbColor rgb="ffbe4b48"/>
-      <rgbColor rgb="ff98b955"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFDEADA"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD6D4CA"/>
+      <rgbColor rgb="FFD2DAE4"/>
+      <rgbColor rgb="FFF2DBDB"/>
+      <rgbColor rgb="FFEAF1DD"/>
+      <rgbColor rgb="FF92CDDC"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FFC5D9F1"/>
+      <rgbColor rgb="FFFEFFFF"/>
+      <rgbColor rgb="FF878787"/>
+      <rgbColor rgb="FF4A7EBB"/>
+      <rgbColor rgb="FFBE4B48"/>
+      <rgbColor rgb="FF98B955"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
   <c:roundedCorners val="0"/>
+  <c:style val="2"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
@@ -1952,10 +1896,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0576335"/>
-          <c:y val="0.0339759"/>
-          <c:w val="0.661121"/>
-          <c:h val="0.898527"/>
+          <c:x val="5.7633499999999997E-2"/>
+          <c:y val="3.3975900000000003E-2"/>
+          <c:w val="0.66112099999999996"/>
+          <c:h val="0.89852699999999996"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1965,12 +1909,9 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Series1</c:v>
+            <c:v>Estimated work</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="4A7EBB"/>
-            </a:solidFill>
             <a:ln w="38100" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="4A7EBB"/>
@@ -1997,31 +1938,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Burndown chart'!$A$2:$A$5</c:f>
@@ -2046,18 +1962,19 @@
             <c:numRef>
               <c:f>'Burndown chart'!$C$2:$C$5</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>130.000000</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>92.000000</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>42.000000</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.000000</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,12 +1985,9 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Series2</c:v>
+            <c:v>Real work</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="BE4B48"/>
-            </a:solidFill>
             <a:ln w="38100" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="BE4B48"/>
@@ -2100,31 +2014,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Burndown chart'!$A$2:$A$5</c:f>
@@ -2149,18 +2038,19 @@
             <c:numRef>
               <c:f>'Burndown chart'!$B$2:$B$5</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>130.000000</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.000000</c:v>
+                  <c:v>91</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.000000</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.000000</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2171,12 +2061,9 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Series3</c:v>
+            <c:v>Actual work</c:v>
           </c:tx>
           <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="98B955"/>
-            </a:solidFill>
             <a:ln w="38100" cap="flat">
               <a:solidFill>
                 <a:srgbClr val="98B955"/>
@@ -2203,31 +2090,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:dLbls>
-            <c:numFmt formatCode="General" sourceLinked="1"/>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="Calibri"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="t"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Burndown chart'!$A$2:$A$5</c:f>
@@ -2252,30 +2114,40 @@
             <c:numRef>
               <c:f>'Burndown chart'!$D$2:$D$5</c:f>
               <c:numCache>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>127.000000</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95.000000</c:v>
+                  <c:v>77</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>92.000000</c:v>
+                  <c:v>41</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92.000000</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:marker val="1"/>
-        <c:axId val="2094734552"/>
-        <c:axId val="2094734553"/>
+        <c:smooth val="0"/>
+        <c:axId val="1829049264"/>
+        <c:axId val="1829064496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2094734552"/>
+        <c:axId val="1829049264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,23 +2171,25 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734553"/>
+        <c:crossAx val="1829064496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2094734553"/>
+        <c:axId val="1829064496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2348,16 +2222,17 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
                 <a:solidFill>
                   <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="Calibri"/>
               </a:defRPr>
             </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2094734552"/>
+        <c:crossAx val="1829049264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="35"/>
@@ -2380,10 +2255,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.812411"/>
-          <c:y val="0.378559"/>
-          <c:w val="0.187589"/>
-          <c:h val="0.126928"/>
+          <c:x val="0.76957334055614035"/>
+          <c:y val="0.37855899999999998"/>
+          <c:w val="0.23042665944385959"/>
+          <c:h val="0.21341213535197637"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -2400,18 +2275,20 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr b="0" i="0" strike="noStrike" sz="1000" u="none">
+            <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
               <a:latin typeface="Calibri"/>
             </a:defRPr>
           </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="1"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2426,36 +2303,41 @@
     </a:ln>
     <a:effectLst/>
   </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>195209</xdr:colOff>
+      <xdr:colOff>14235</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>472249</xdr:colOff>
+      <xdr:colOff>781051</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>111239</xdr:rowOff>
     </xdr:to>
-    <xdr:graphicFrame>
+    <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7878709" y="-514"/>
-        <a:ext cx="6068241" cy="4111741"/>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
       </xdr:xfrm>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2465,7 +2347,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office-thema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
     <a:clrScheme name="Office-thema">
       <a:dk1>
@@ -2591,7 +2473,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2600,7 +2482,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2609,7 +2491,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2683,7 +2565,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2691,7 +2573,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2710,7 +2592,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2740,7 +2622,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2766,7 +2648,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2792,7 +2674,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2818,7 +2700,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2844,7 +2726,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2870,7 +2752,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2896,7 +2778,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2922,7 +2804,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2948,7 +2830,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2961,9 +2843,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2978,7 +2866,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -2986,7 +2874,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3005,7 +2893,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3031,7 +2919,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3057,7 +2945,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3083,7 +2971,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3109,7 +2997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3135,7 +3023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3161,7 +3049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3187,7 +3075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3213,7 +3101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3239,7 +3127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3252,9 +3140,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3268,7 +3162,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3287,7 +3181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3317,7 +3211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3343,7 +3237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3369,7 +3263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3395,7 +3289,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3421,7 +3315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3447,7 +3341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3473,7 +3367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3499,7 +3393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3525,7 +3419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3538,53 +3432,55 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV76"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5714" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.86719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.57812" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.57812" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.8672" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5781" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40.4453" style="1" customWidth="1"/>
-    <col min="7" max="7" width="43.4453" style="1" customWidth="1"/>
-    <col min="8" max="8" width="43.4453" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.8672" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="40.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="43.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.875" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11" style="1" customWidth="1"/>
-    <col min="12" max="12" width="11" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.8672" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8672" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.8672" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.8672" style="1" customWidth="1"/>
-    <col min="17" max="17" width="10.8672" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.8672" style="1" customWidth="1"/>
-    <col min="19" max="256" width="13.5781" style="1" customWidth="1"/>
+    <col min="11" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="18" width="10.875" style="1" customWidth="1"/>
+    <col min="19" max="256" width="13.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:18" ht="24.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
-      <c r="E1" t="s" s="5">
+      <c r="E1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4"/>
@@ -3601,7 +3497,7 @@
       <c r="Q1" s="8"/>
       <c r="R1" s="9"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10"/>
       <c r="B2" s="11"/>
       <c r="C2" s="12"/>
@@ -3621,19 +3517,19 @@
       <c r="Q2" s="16"/>
       <c r="R2" s="17"/>
     </row>
-    <row r="3" ht="16.5" customHeight="1">
-      <c r="A3" t="s" s="18">
+    <row r="3" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="19">
+      <c r="B3" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="12"/>
-      <c r="E3" t="s" s="21">
+      <c r="E3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s" s="21">
+      <c r="F3" s="21" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="12"/>
@@ -3649,17 +3545,17 @@
       <c r="Q3" s="16"/>
       <c r="R3" s="17"/>
     </row>
-    <row r="4" ht="16.5" customHeight="1">
+    <row r="4" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="22"/>
-      <c r="B4" t="s" s="23">
+      <c r="B4" s="23" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="12"/>
-      <c r="E4" t="s" s="21">
+      <c r="E4" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s" s="24">
+      <c r="F4" s="24" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="12"/>
@@ -3675,9 +3571,9 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="17"/>
     </row>
-    <row r="5" ht="16.5" customHeight="1">
+    <row r="5" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="22"/>
-      <c r="B5" t="s" s="25">
+      <c r="B5" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="20"/>
@@ -3697,9 +3593,9 @@
       <c r="Q5" s="16"/>
       <c r="R5" s="17"/>
     </row>
-    <row r="6" ht="16.5" customHeight="1">
+    <row r="6" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="22"/>
-      <c r="B6" t="s" s="26">
+      <c r="B6" s="26" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="20"/>
@@ -3719,9 +3615,9 @@
       <c r="Q6" s="16"/>
       <c r="R6" s="17"/>
     </row>
-    <row r="7" ht="16.5" customHeight="1">
+    <row r="7" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="22"/>
-      <c r="B7" t="s" s="27">
+      <c r="B7" s="27" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="20"/>
@@ -3741,7 +3637,7 @@
       <c r="Q7" s="16"/>
       <c r="R7" s="17"/>
     </row>
-    <row r="8" ht="16.5" customHeight="1">
+    <row r="8" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29"/>
       <c r="B8" s="30"/>
       <c r="C8" s="31"/>
@@ -3761,44 +3657,44 @@
       <c r="Q8" s="16"/>
       <c r="R8" s="17"/>
     </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" t="s" s="33">
+    <row r="9" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s" s="34">
+      <c r="B9" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C9" t="s" s="34">
+      <c r="C9" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="D9" t="s" s="34">
+      <c r="D9" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s" s="34">
+      <c r="E9" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s" s="34">
+      <c r="F9" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G9" t="s" s="34">
+      <c r="G9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="H9" t="s" s="34">
+      <c r="H9" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="I9" t="s" s="34">
+      <c r="I9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="J9" t="s" s="34">
+      <c r="J9" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="K9" t="s" s="34">
+      <c r="K9" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="L9" t="s" s="34">
+      <c r="L9" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s" s="35">
+      <c r="M9" s="35" t="s">
         <v>24</v>
       </c>
       <c r="N9" s="15"/>
@@ -3807,29 +3703,29 @@
       <c r="Q9" s="16"/>
       <c r="R9" s="17"/>
     </row>
-    <row r="10" ht="31.5" customHeight="1">
+    <row r="10" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36">
         <v>1</v>
       </c>
-      <c r="B10" t="s" s="37">
+      <c r="B10" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C10" s="38">
         <v>4</v>
       </c>
-      <c r="D10" t="s" s="39">
+      <c r="D10" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E10" t="s" s="39">
+      <c r="E10" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="F10" t="s" s="39">
+      <c r="F10" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="G10" t="s" s="39">
+      <c r="G10" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s" s="39">
+      <c r="H10" s="39" t="s">
         <v>29</v>
       </c>
       <c r="I10" s="38"/>
@@ -3838,7 +3734,7 @@
       </c>
       <c r="K10" s="38"/>
       <c r="L10" s="38"/>
-      <c r="M10" t="s" s="40">
+      <c r="M10" s="40" t="s">
         <v>30</v>
       </c>
       <c r="N10" s="15"/>
@@ -3847,30 +3743,30 @@
       <c r="Q10" s="16"/>
       <c r="R10" s="17"/>
     </row>
-    <row r="11" ht="31.5" customHeight="1">
+    <row r="11" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36">
-        <f>A10+1</f>
+        <f t="shared" ref="A11:A32" si="0">A10+1</f>
         <v>2</v>
       </c>
-      <c r="B11" t="s" s="37">
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="38">
         <v>4</v>
       </c>
-      <c r="D11" t="s" s="39">
+      <c r="D11" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E11" t="s" s="39">
+      <c r="E11" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="F11" t="s" s="39">
+      <c r="F11" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="G11" t="s" s="39">
+      <c r="G11" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H11" t="s" s="39">
+      <c r="H11" s="39" t="s">
         <v>34</v>
       </c>
       <c r="I11" s="38"/>
@@ -3879,7 +3775,7 @@
       </c>
       <c r="K11" s="38"/>
       <c r="L11" s="38"/>
-      <c r="M11" t="s" s="40">
+      <c r="M11" s="40" t="s">
         <v>30</v>
       </c>
       <c r="N11" s="15"/>
@@ -3888,30 +3784,30 @@
       <c r="Q11" s="16"/>
       <c r="R11" s="17"/>
     </row>
-    <row r="12" ht="63" customHeight="1">
+    <row r="12" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="36">
-        <f>A11+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B12" t="s" s="41">
+      <c r="B12" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="38">
         <v>4</v>
       </c>
-      <c r="D12" t="s" s="39">
+      <c r="D12" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E12" t="s" s="39">
+      <c r="E12" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F12" t="s" s="39">
+      <c r="F12" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G12" t="s" s="39">
+      <c r="G12" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="H12" t="s" s="39">
+      <c r="H12" s="39" t="s">
         <v>39</v>
       </c>
       <c r="I12" s="38"/>
@@ -3920,7 +3816,7 @@
       </c>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
-      <c r="M12" t="s" s="40">
+      <c r="M12" s="40" t="s">
         <v>30</v>
       </c>
       <c r="N12" s="15"/>
@@ -3929,30 +3825,30 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="17"/>
     </row>
-    <row r="13" ht="47.25" customHeight="1">
+    <row r="13" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
-        <f>A12+1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B13" t="s" s="42">
+      <c r="B13" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C13" s="38">
         <v>4</v>
       </c>
-      <c r="D13" t="s" s="39">
+      <c r="D13" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E13" t="s" s="39">
+      <c r="E13" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="F13" t="s" s="39">
+      <c r="F13" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="G13" t="s" s="39">
+      <c r="G13" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H13" t="s" s="39">
+      <c r="H13" s="39" t="s">
         <v>44</v>
       </c>
       <c r="I13" s="38"/>
@@ -3961,7 +3857,7 @@
       </c>
       <c r="K13" s="38"/>
       <c r="L13" s="38"/>
-      <c r="M13" t="s" s="40">
+      <c r="M13" s="40" t="s">
         <v>30</v>
       </c>
       <c r="N13" s="15"/>
@@ -3970,30 +3866,30 @@
       <c r="Q13" s="16"/>
       <c r="R13" s="17"/>
     </row>
-    <row r="14" ht="47.25" customHeight="1">
+    <row r="14" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36">
-        <f>A13+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B14" t="s" s="37">
+      <c r="B14" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="38">
         <v>4</v>
       </c>
-      <c r="D14" t="s" s="39">
+      <c r="D14" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E14" t="s" s="39">
+      <c r="E14" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="F14" t="s" s="39">
+      <c r="F14" s="39" t="s">
         <v>46</v>
       </c>
-      <c r="G14" t="s" s="39">
+      <c r="G14" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="H14" t="s" s="39">
+      <c r="H14" s="39" t="s">
         <v>48</v>
       </c>
       <c r="I14" s="38"/>
@@ -4002,7 +3898,7 @@
       </c>
       <c r="K14" s="38"/>
       <c r="L14" s="38"/>
-      <c r="M14" t="s" s="40">
+      <c r="M14" s="40" t="s">
         <v>30</v>
       </c>
       <c r="N14" s="15"/>
@@ -4011,43 +3907,43 @@
       <c r="Q14" s="16"/>
       <c r="R14" s="17"/>
     </row>
-    <row r="15" ht="31.5" customHeight="1">
+    <row r="15" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36">
-        <f>A14+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B15" t="s" s="42">
+      <c r="B15" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C15" s="43">
         <v>2</v>
       </c>
-      <c r="D15" t="s" s="44">
+      <c r="D15" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E15" t="s" s="44">
+      <c r="E15" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F15" t="s" s="44">
+      <c r="F15" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="G15" t="s" s="44">
+      <c r="G15" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="H15" t="s" s="44">
+      <c r="H15" s="44" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="43"/>
       <c r="J15" s="43">
         <v>2</v>
       </c>
-      <c r="K15" t="s" s="44">
+      <c r="K15" s="44" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="43">
         <v>3</v>
       </c>
-      <c r="M15" t="s" s="45">
+      <c r="M15" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N15" s="15"/>
@@ -4056,43 +3952,43 @@
       <c r="Q15" s="16"/>
       <c r="R15" s="17"/>
     </row>
-    <row r="16" ht="63" customHeight="1">
+    <row r="16" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="36">
-        <f>A15+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B16" t="s" s="37">
+      <c r="B16" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="43">
         <v>2</v>
       </c>
-      <c r="D16" t="s" s="44">
+      <c r="D16" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s" s="44">
+      <c r="E16" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="F16" t="s" s="44">
+      <c r="F16" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="G16" t="s" s="44">
+      <c r="G16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="H16" t="s" s="44">
+      <c r="H16" s="44" t="s">
         <v>58</v>
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="43">
         <v>1</v>
       </c>
-      <c r="K16" t="s" s="44">
+      <c r="K16" s="44" t="s">
         <v>53</v>
       </c>
       <c r="L16" s="43">
         <v>1</v>
       </c>
-      <c r="M16" t="s" s="45">
+      <c r="M16" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N16" s="15"/>
@@ -4101,43 +3997,43 @@
       <c r="Q16" s="16"/>
       <c r="R16" s="17"/>
     </row>
-    <row r="17" ht="47.25" customHeight="1">
+    <row r="17" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="36">
-        <f>A16+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B17" t="s" s="41">
+      <c r="B17" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="43">
         <v>2</v>
       </c>
-      <c r="D17" t="s" s="44">
+      <c r="D17" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s" s="44">
+      <c r="E17" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="F17" t="s" s="44">
+      <c r="F17" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="G17" t="s" s="44">
+      <c r="G17" s="44" t="s">
         <v>61</v>
       </c>
-      <c r="H17" t="s" s="44">
+      <c r="H17" s="44" t="s">
         <v>62</v>
       </c>
       <c r="I17" s="43"/>
       <c r="J17" s="43">
         <v>1</v>
       </c>
-      <c r="K17" t="s" s="44">
+      <c r="K17" s="44" t="s">
         <v>53</v>
       </c>
       <c r="L17" s="43">
         <v>2</v>
       </c>
-      <c r="M17" t="s" s="45">
+      <c r="M17" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N17" s="15"/>
@@ -4146,43 +4042,43 @@
       <c r="Q17" s="16"/>
       <c r="R17" s="17"/>
     </row>
-    <row r="18" ht="47.25" customHeight="1">
+    <row r="18" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36">
-        <f>A17+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="37">
+      <c r="B18" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="43">
         <v>2</v>
       </c>
-      <c r="D18" t="s" s="44">
+      <c r="D18" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E18" t="s" s="44">
+      <c r="E18" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="F18" t="s" s="44">
+      <c r="F18" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="G18" t="s" s="44">
+      <c r="G18" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="H18" t="s" s="44">
+      <c r="H18" s="44" t="s">
         <v>66</v>
       </c>
       <c r="I18" s="43"/>
       <c r="J18" s="43">
         <v>3</v>
       </c>
-      <c r="K18" t="s" s="44">
+      <c r="K18" s="44" t="s">
         <v>67</v>
       </c>
       <c r="L18" s="43">
         <v>2</v>
       </c>
-      <c r="M18" t="s" s="45">
+      <c r="M18" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N18" s="15"/>
@@ -4191,43 +4087,43 @@
       <c r="Q18" s="16"/>
       <c r="R18" s="17"/>
     </row>
-    <row r="19" ht="47.25" customHeight="1">
+    <row r="19" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36">
-        <f>A18+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B19" t="s" s="41">
+      <c r="B19" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="43">
         <v>2</v>
       </c>
-      <c r="D19" t="s" s="44">
+      <c r="D19" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E19" t="s" s="44">
+      <c r="E19" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="F19" t="s" s="44">
+      <c r="F19" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="G19" t="s" s="46">
+      <c r="G19" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="H19" t="s" s="44">
+      <c r="H19" s="44" t="s">
         <v>71</v>
       </c>
       <c r="I19" s="43"/>
       <c r="J19" s="43">
         <v>2</v>
       </c>
-      <c r="K19" t="s" s="44">
+      <c r="K19" s="44" t="s">
         <v>67</v>
       </c>
       <c r="L19" s="43">
         <v>2</v>
       </c>
-      <c r="M19" t="s" s="45">
+      <c r="M19" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N19" s="15"/>
@@ -4236,43 +4132,43 @@
       <c r="Q19" s="16"/>
       <c r="R19" s="17"/>
     </row>
-    <row r="20" ht="78.75" customHeight="1">
+    <row r="20" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="36">
-        <f>A19+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B20" t="s" s="37">
+      <c r="B20" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="43">
         <v>2</v>
       </c>
-      <c r="D20" t="s" s="44">
+      <c r="D20" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s" s="44">
+      <c r="E20" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="F20" t="s" s="44">
+      <c r="F20" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="G20" t="s" s="47">
+      <c r="G20" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="H20" t="s" s="44">
+      <c r="H20" s="44" t="s">
         <v>75</v>
       </c>
       <c r="I20" s="43"/>
       <c r="J20" s="43">
         <v>3</v>
       </c>
-      <c r="K20" t="s" s="44">
+      <c r="K20" s="44" t="s">
         <v>76</v>
       </c>
       <c r="L20" s="43">
         <v>1</v>
       </c>
-      <c r="M20" t="s" s="45">
+      <c r="M20" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N20" s="15"/>
@@ -4281,43 +4177,43 @@
       <c r="Q20" s="16"/>
       <c r="R20" s="17"/>
     </row>
-    <row r="21" ht="47.25" customHeight="1">
+    <row r="21" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="36">
-        <f>A20+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B21" t="s" s="41">
+      <c r="B21" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="43">
         <v>2</v>
       </c>
-      <c r="D21" t="s" s="44">
+      <c r="D21" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E21" t="s" s="44">
+      <c r="E21" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="F21" t="s" s="44">
+      <c r="F21" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="G21" t="s" s="44">
+      <c r="G21" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="H21" t="s" s="44">
+      <c r="H21" s="44" t="s">
         <v>80</v>
       </c>
       <c r="I21" s="43"/>
       <c r="J21" s="43">
         <v>2</v>
       </c>
-      <c r="K21" t="s" s="44">
+      <c r="K21" s="44" t="s">
         <v>76</v>
       </c>
       <c r="L21" s="43">
         <v>2</v>
       </c>
-      <c r="M21" t="s" s="45">
+      <c r="M21" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N21" s="15"/>
@@ -4326,43 +4222,43 @@
       <c r="Q21" s="16"/>
       <c r="R21" s="17"/>
     </row>
-    <row r="22" ht="47.25" customHeight="1">
+    <row r="22" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="36">
-        <f>A21+1</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B22" t="s" s="42">
+      <c r="B22" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C22" s="43">
         <v>2</v>
       </c>
-      <c r="D22" t="s" s="44">
+      <c r="D22" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E22" t="s" s="44">
+      <c r="E22" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="F22" t="s" s="44">
+      <c r="F22" s="44" t="s">
         <v>82</v>
       </c>
-      <c r="G22" t="s" s="44">
+      <c r="G22" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="H22" t="s" s="44">
+      <c r="H22" s="44" t="s">
         <v>84</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="43">
         <v>2</v>
       </c>
-      <c r="K22" t="s" s="44">
+      <c r="K22" s="44" t="s">
         <v>85</v>
       </c>
       <c r="L22" s="43">
         <v>2</v>
       </c>
-      <c r="M22" t="s" s="45">
+      <c r="M22" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N22" s="15"/>
@@ -4371,43 +4267,43 @@
       <c r="Q22" s="16"/>
       <c r="R22" s="17"/>
     </row>
-    <row r="23" ht="47.25" customHeight="1">
+    <row r="23" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="36">
-        <f>A22+1</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B23" t="s" s="41">
+      <c r="B23" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="43">
         <v>2</v>
       </c>
-      <c r="D23" t="s" s="44">
+      <c r="D23" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E23" t="s" s="44">
+      <c r="E23" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="F23" t="s" s="44">
+      <c r="F23" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="G23" t="s" s="44">
+      <c r="G23" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="H23" t="s" s="44">
+      <c r="H23" s="44" t="s">
         <v>89</v>
       </c>
       <c r="I23" s="43"/>
       <c r="J23" s="43">
         <v>3</v>
       </c>
-      <c r="K23" t="s" s="44">
+      <c r="K23" s="44" t="s">
         <v>85</v>
       </c>
       <c r="L23" s="43">
         <v>3</v>
       </c>
-      <c r="M23" t="s" s="45">
+      <c r="M23" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N23" s="15"/>
@@ -4416,43 +4312,43 @@
       <c r="Q23" s="16"/>
       <c r="R23" s="17"/>
     </row>
-    <row r="24" ht="78.75" customHeight="1">
+    <row r="24" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="36">
-        <f>A23+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B24" t="s" s="37">
+      <c r="B24" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C24" s="43">
         <v>2</v>
       </c>
-      <c r="D24" t="s" s="44">
+      <c r="D24" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="E24" t="s" s="44">
+      <c r="E24" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="F24" t="s" s="44">
+      <c r="F24" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="G24" t="s" s="44">
+      <c r="G24" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="H24" t="s" s="44">
+      <c r="H24" s="44" t="s">
         <v>93</v>
       </c>
       <c r="I24" s="43"/>
       <c r="J24" s="43">
         <v>4</v>
       </c>
-      <c r="K24" t="s" s="44">
+      <c r="K24" s="44" t="s">
         <v>53</v>
       </c>
       <c r="L24" s="43">
         <v>3</v>
       </c>
-      <c r="M24" t="s" s="45">
+      <c r="M24" s="45" t="s">
         <v>54</v>
       </c>
       <c r="N24" s="15"/>
@@ -4461,27 +4357,27 @@
       <c r="Q24" s="16"/>
       <c r="R24" s="17"/>
     </row>
-    <row r="25" ht="31.5" customHeight="1">
+    <row r="25" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="36">
-        <f>A24+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B25" t="s" s="42">
+      <c r="B25" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="48">
         <v>3</v>
       </c>
-      <c r="D25" t="s" s="49">
+      <c r="D25" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E25" t="s" s="50">
+      <c r="E25" s="50" t="s">
         <v>94</v>
       </c>
-      <c r="F25" t="s" s="50">
+      <c r="F25" s="50" t="s">
         <v>95</v>
       </c>
-      <c r="G25" t="s" s="50">
+      <c r="G25" s="50" t="s">
         <v>96</v>
       </c>
       <c r="H25" s="51"/>
@@ -4489,11 +4385,13 @@
       <c r="J25" s="51">
         <v>2</v>
       </c>
-      <c r="K25" t="s" s="50">
+      <c r="K25" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="L25" s="51"/>
-      <c r="M25" t="s" s="52">
+      <c r="L25" s="51">
+        <v>2</v>
+      </c>
+      <c r="M25" s="52" t="s">
         <v>30</v>
       </c>
       <c r="N25" s="15"/>
@@ -4502,24 +4400,24 @@
       <c r="Q25" s="16"/>
       <c r="R25" s="17"/>
     </row>
-    <row r="26" ht="31.5" customHeight="1">
+    <row r="26" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="36">
-        <f>A25+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B26" t="s" s="41">
+      <c r="B26" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C26" s="53">
         <v>3</v>
       </c>
-      <c r="D26" t="s" s="49">
+      <c r="D26" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="s" s="54">
+      <c r="E26" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="F26" t="s" s="54">
+      <c r="F26" s="54" t="s">
         <v>98</v>
       </c>
       <c r="G26" s="55"/>
@@ -4528,11 +4426,13 @@
       <c r="J26" s="55">
         <v>1</v>
       </c>
-      <c r="K26" t="s" s="54">
+      <c r="K26" s="54" t="s">
         <v>85</v>
       </c>
-      <c r="L26" s="55"/>
-      <c r="M26" t="s" s="56">
+      <c r="L26" s="55">
+        <v>1</v>
+      </c>
+      <c r="M26" s="56" t="s">
         <v>30</v>
       </c>
       <c r="N26" s="15"/>
@@ -4541,24 +4441,24 @@
       <c r="Q26" s="16"/>
       <c r="R26" s="17"/>
     </row>
-    <row r="27" ht="47.25" customHeight="1">
+    <row r="27" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="36">
-        <f>A26+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B27" t="s" s="42">
+      <c r="B27" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C27" s="57">
         <v>3</v>
       </c>
-      <c r="D27" t="s" s="49">
+      <c r="D27" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E27" t="s" s="49">
+      <c r="E27" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="F27" t="s" s="49">
+      <c r="F27" s="49" t="s">
         <v>100</v>
       </c>
       <c r="G27" s="58"/>
@@ -4569,7 +4469,7 @@
       </c>
       <c r="K27" s="58"/>
       <c r="L27" s="58"/>
-      <c r="M27" t="s" s="59">
+      <c r="M27" s="59" t="s">
         <v>30</v>
       </c>
       <c r="N27" s="15"/>
@@ -4578,24 +4478,24 @@
       <c r="Q27" s="16"/>
       <c r="R27" s="17"/>
     </row>
-    <row r="28" ht="47.25" customHeight="1">
+    <row r="28" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="36">
-        <f>A27+1</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B28" t="s" s="60">
+      <c r="B28" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="58">
         <v>2</v>
       </c>
-      <c r="D28" t="s" s="49">
+      <c r="D28" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E28" t="s" s="49">
+      <c r="E28" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="F28" t="s" s="49">
+      <c r="F28" s="49" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="58"/>
@@ -4604,13 +4504,13 @@
       <c r="J28" s="58">
         <v>2</v>
       </c>
-      <c r="K28" t="s" s="49">
+      <c r="K28" s="49" t="s">
         <v>103</v>
       </c>
       <c r="L28" s="58">
         <v>2</v>
       </c>
-      <c r="M28" t="s" s="59">
+      <c r="M28" s="59" t="s">
         <v>54</v>
       </c>
       <c r="N28" s="15"/>
@@ -4619,24 +4519,24 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="17"/>
     </row>
-    <row r="29" ht="31.5" customHeight="1">
+    <row r="29" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="36">
-        <f>A28+1</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B29" t="s" s="42">
+      <c r="B29" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C29" s="48">
         <v>2</v>
       </c>
-      <c r="D29" t="s" s="49">
+      <c r="D29" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E29" t="s" s="50">
+      <c r="E29" s="50" t="s">
         <v>104</v>
       </c>
-      <c r="F29" t="s" s="50">
+      <c r="F29" s="50" t="s">
         <v>105</v>
       </c>
       <c r="G29" s="51"/>
@@ -4645,13 +4545,13 @@
       <c r="J29" s="51">
         <v>4</v>
       </c>
-      <c r="K29" t="s" s="50">
+      <c r="K29" s="50" t="s">
         <v>103</v>
       </c>
       <c r="L29" s="51">
         <v>3</v>
       </c>
-      <c r="M29" t="s" s="52">
+      <c r="M29" s="52" t="s">
         <v>106</v>
       </c>
       <c r="N29" s="15"/>
@@ -4660,24 +4560,24 @@
       <c r="Q29" s="16"/>
       <c r="R29" s="17"/>
     </row>
-    <row r="30" ht="31.5" customHeight="1">
+    <row r="30" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="36">
-        <f>A29+1</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B30" t="s" s="41">
+      <c r="B30" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="53">
         <v>3</v>
       </c>
-      <c r="D30" t="s" s="49">
+      <c r="D30" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E30" t="s" s="54">
+      <c r="E30" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="F30" t="s" s="54">
+      <c r="F30" s="54" t="s">
         <v>108</v>
       </c>
       <c r="G30" s="55"/>
@@ -4686,11 +4586,13 @@
       <c r="J30" s="55">
         <v>1</v>
       </c>
-      <c r="K30" t="s" s="54">
+      <c r="K30" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="L30" s="55"/>
-      <c r="M30" t="s" s="56">
+      <c r="L30" s="55">
+        <v>1</v>
+      </c>
+      <c r="M30" s="56" t="s">
         <v>30</v>
       </c>
       <c r="N30" s="15"/>
@@ -4699,24 +4601,24 @@
       <c r="Q30" s="16"/>
       <c r="R30" s="17"/>
     </row>
-    <row r="31" ht="47.25" customHeight="1">
+    <row r="31" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="36">
-        <f>A30+1</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B31" t="s" s="42">
+      <c r="B31" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C31" s="57">
         <v>3</v>
       </c>
-      <c r="D31" t="s" s="49">
+      <c r="D31" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E31" t="s" s="49">
+      <c r="E31" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="F31" t="s" s="49">
+      <c r="F31" s="49" t="s">
         <v>111</v>
       </c>
       <c r="G31" s="58"/>
@@ -4727,7 +4629,7 @@
       </c>
       <c r="K31" s="58"/>
       <c r="L31" s="58"/>
-      <c r="M31" t="s" s="59">
+      <c r="M31" s="59" t="s">
         <v>30</v>
       </c>
       <c r="N31" s="15"/>
@@ -4736,24 +4638,24 @@
       <c r="Q31" s="16"/>
       <c r="R31" s="17"/>
     </row>
-    <row r="32" ht="47.25" customHeight="1">
+    <row r="32" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="36">
-        <f>A31+1</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B32" t="s" s="42">
+      <c r="B32" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C32" s="57">
         <v>3</v>
       </c>
-      <c r="D32" t="s" s="49">
+      <c r="D32" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E32" t="s" s="49">
+      <c r="E32" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="F32" t="s" s="49">
+      <c r="F32" s="49" t="s">
         <v>113</v>
       </c>
       <c r="G32" s="58"/>
@@ -4764,7 +4666,7 @@
       </c>
       <c r="K32" s="58"/>
       <c r="L32" s="58"/>
-      <c r="M32" t="s" s="59">
+      <c r="M32" s="59" t="s">
         <v>30</v>
       </c>
       <c r="N32" s="15"/>
@@ -4773,24 +4675,24 @@
       <c r="Q32" s="16"/>
       <c r="R32" s="17"/>
     </row>
-    <row r="33" ht="31.5" customHeight="1">
+    <row r="33" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="36">
         <f>A28+1</f>
         <v>20</v>
       </c>
-      <c r="B33" t="s" s="60">
+      <c r="B33" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="51">
         <v>2</v>
       </c>
-      <c r="D33" t="s" s="49">
+      <c r="D33" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E33" t="s" s="50">
+      <c r="E33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="F33" t="s" s="50">
+      <c r="F33" s="50" t="s">
         <v>115</v>
       </c>
       <c r="G33" s="51"/>
@@ -4799,13 +4701,13 @@
       <c r="J33" s="51">
         <v>3</v>
       </c>
-      <c r="K33" t="s" s="50">
+      <c r="K33" s="50" t="s">
         <v>109</v>
       </c>
       <c r="L33" s="51">
         <v>2</v>
       </c>
-      <c r="M33" t="s" s="52">
+      <c r="M33" s="52" t="s">
         <v>54</v>
       </c>
       <c r="N33" s="15"/>
@@ -4814,24 +4716,24 @@
       <c r="Q33" s="16"/>
       <c r="R33" s="17"/>
     </row>
-    <row r="34" ht="31.5" customHeight="1">
+    <row r="34" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="36">
         <f>A33+1</f>
         <v>21</v>
       </c>
-      <c r="B34" t="s" s="60">
+      <c r="B34" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="55">
         <v>2</v>
       </c>
-      <c r="D34" t="s" s="49">
+      <c r="D34" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E34" t="s" s="54">
+      <c r="E34" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="F34" t="s" s="54">
+      <c r="F34" s="54" t="s">
         <v>117</v>
       </c>
       <c r="G34" s="55"/>
@@ -4840,13 +4742,13 @@
       <c r="J34" s="55">
         <v>2</v>
       </c>
-      <c r="K34" t="s" s="54">
+      <c r="K34" s="54" t="s">
         <v>109</v>
       </c>
       <c r="L34" s="55">
         <v>2</v>
       </c>
-      <c r="M34" t="s" s="56">
+      <c r="M34" s="56" t="s">
         <v>54</v>
       </c>
       <c r="N34" s="15"/>
@@ -4855,24 +4757,24 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="17"/>
     </row>
-    <row r="35" ht="31.5" customHeight="1">
+    <row r="35" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="36">
         <f>A34+1</f>
         <v>22</v>
       </c>
-      <c r="B35" t="s" s="60">
+      <c r="B35" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="58">
         <v>2</v>
       </c>
-      <c r="D35" t="s" s="49">
+      <c r="D35" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E35" t="s" s="49">
+      <c r="E35" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="F35" t="s" s="49">
+      <c r="F35" s="49" t="s">
         <v>119</v>
       </c>
       <c r="G35" s="58"/>
@@ -4881,13 +4783,13 @@
       <c r="J35" s="58">
         <v>1</v>
       </c>
-      <c r="K35" t="s" s="49">
+      <c r="K35" s="49" t="s">
         <v>109</v>
       </c>
       <c r="L35" s="58">
         <v>2</v>
       </c>
-      <c r="M35" t="s" s="59">
+      <c r="M35" s="59" t="s">
         <v>54</v>
       </c>
       <c r="N35" s="15"/>
@@ -4896,24 +4798,24 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="17"/>
     </row>
-    <row r="36" ht="47.25" customHeight="1">
+    <row r="36" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="36">
         <f>A35+1</f>
         <v>23</v>
       </c>
-      <c r="B36" t="s" s="60">
+      <c r="B36" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="58">
         <v>2</v>
       </c>
-      <c r="D36" t="s" s="49">
+      <c r="D36" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="E36" t="s" s="49">
+      <c r="E36" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="F36" t="s" s="49">
+      <c r="F36" s="49" t="s">
         <v>121</v>
       </c>
       <c r="G36" s="58"/>
@@ -4922,11 +4824,13 @@
       <c r="J36" s="58">
         <v>3</v>
       </c>
-      <c r="K36" t="s" s="49">
+      <c r="K36" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="L36" s="58"/>
-      <c r="M36" t="s" s="59">
+      <c r="L36" s="58">
+        <v>3</v>
+      </c>
+      <c r="M36" s="59" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="15"/>
@@ -4935,21 +4839,21 @@
       <c r="Q36" s="16"/>
       <c r="R36" s="17"/>
     </row>
-    <row r="37" ht="47.25" customHeight="1">
+    <row r="37" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="36"/>
-      <c r="B37" t="s" s="60">
+      <c r="B37" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C37" s="51">
         <v>3</v>
       </c>
-      <c r="D37" t="s" s="50">
+      <c r="D37" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E37" t="s" s="50">
+      <c r="E37" s="50" t="s">
         <v>120</v>
       </c>
-      <c r="F37" t="s" s="50">
+      <c r="F37" s="50" t="s">
         <v>121</v>
       </c>
       <c r="G37" s="51"/>
@@ -4958,11 +4862,13 @@
       <c r="J37" s="51">
         <v>3</v>
       </c>
-      <c r="K37" t="s" s="50">
+      <c r="K37" s="50" t="s">
         <v>103</v>
       </c>
-      <c r="L37" s="51"/>
-      <c r="M37" t="s" s="52">
+      <c r="L37" s="51">
+        <v>3</v>
+      </c>
+      <c r="M37" s="52" t="s">
         <v>30</v>
       </c>
       <c r="N37" s="15"/>
@@ -4971,21 +4877,21 @@
       <c r="Q37" s="16"/>
       <c r="R37" s="17"/>
     </row>
-    <row r="38" ht="47.25" customHeight="1">
+    <row r="38" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="36"/>
-      <c r="B38" t="s" s="42">
+      <c r="B38" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C38" s="61">
         <v>3</v>
       </c>
-      <c r="D38" t="s" s="62">
+      <c r="D38" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="E38" t="s" s="62">
+      <c r="E38" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="F38" t="s" s="62">
+      <c r="F38" s="62" t="s">
         <v>123</v>
       </c>
       <c r="G38" s="63"/>
@@ -4994,13 +4900,13 @@
       <c r="J38" s="63">
         <v>3</v>
       </c>
-      <c r="K38" t="s" s="62">
+      <c r="K38" s="62" t="s">
         <v>53</v>
       </c>
       <c r="L38" s="63">
         <v>3</v>
       </c>
-      <c r="M38" t="s" s="64">
+      <c r="M38" s="64" t="s">
         <v>54</v>
       </c>
       <c r="N38" s="15"/>
@@ -5009,40 +4915,44 @@
       <c r="Q38" s="16"/>
       <c r="R38" s="17"/>
     </row>
-    <row r="39" ht="63" customHeight="1">
+    <row r="39" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="36">
         <f>A36+1</f>
         <v>24</v>
       </c>
-      <c r="B39" t="s" s="41">
+      <c r="B39" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C39" s="65">
         <v>3</v>
       </c>
-      <c r="D39" t="s" s="66">
+      <c r="D39" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E39" t="s" s="66">
+      <c r="E39" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="F39" t="s" s="66">
+      <c r="F39" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="G39" t="s" s="66">
+      <c r="G39" s="66" t="s">
         <v>126</v>
       </c>
-      <c r="H39" t="s" s="66">
+      <c r="H39" s="66" t="s">
         <v>127</v>
       </c>
       <c r="I39" s="67"/>
       <c r="J39" s="67">
         <v>2</v>
       </c>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" t="s" s="68">
-        <v>30</v>
+      <c r="K39" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L39" s="67">
+        <v>1</v>
+      </c>
+      <c r="M39" s="68" t="s">
+        <v>54</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" s="16"/>
@@ -5050,40 +4960,44 @@
       <c r="Q39" s="16"/>
       <c r="R39" s="17"/>
     </row>
-    <row r="40" ht="78.75" customHeight="1">
+    <row r="40" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="36">
         <f>A39+1</f>
         <v>25</v>
       </c>
-      <c r="B40" t="s" s="41">
+      <c r="B40" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C40" s="65">
         <v>3</v>
       </c>
-      <c r="D40" t="s" s="66">
+      <c r="D40" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E40" t="s" s="66">
+      <c r="E40" s="66" t="s">
         <v>128</v>
       </c>
-      <c r="F40" t="s" s="66">
+      <c r="F40" s="66" t="s">
         <v>129</v>
       </c>
-      <c r="G40" t="s" s="66">
+      <c r="G40" s="66" t="s">
         <v>130</v>
       </c>
-      <c r="H40" t="s" s="66">
+      <c r="H40" s="66" t="s">
         <v>131</v>
       </c>
       <c r="I40" s="67"/>
       <c r="J40" s="67">
         <v>4</v>
       </c>
-      <c r="K40" s="67"/>
-      <c r="L40" s="67"/>
-      <c r="M40" t="s" s="68">
-        <v>30</v>
+      <c r="K40" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L40" s="67">
+        <v>3</v>
+      </c>
+      <c r="M40" s="68" t="s">
+        <v>54</v>
       </c>
       <c r="N40" s="15"/>
       <c r="O40" s="16"/>
@@ -5091,76 +5005,86 @@
       <c r="Q40" s="16"/>
       <c r="R40" s="17"/>
     </row>
-    <row r="41" ht="47.25" customHeight="1">
+    <row r="41" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="36"/>
-      <c r="B41" t="s" s="42">
+      <c r="B41" s="42" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="65">
         <v>4</v>
       </c>
-      <c r="D41" t="s" s="66">
+      <c r="D41" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E41" t="s" s="66">
+      <c r="E41" s="66" t="s">
         <v>132</v>
       </c>
-      <c r="F41" t="s" s="66">
+      <c r="F41" s="66" t="s">
         <v>133</v>
       </c>
-      <c r="G41" t="s" s="66">
+      <c r="G41" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="H41" t="s" s="66">
+      <c r="H41" s="66" t="s">
         <v>135</v>
       </c>
       <c r="I41" s="67"/>
       <c r="J41" s="67">
         <v>1</v>
       </c>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="68"/>
+      <c r="K41" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L41" s="67">
+        <v>1</v>
+      </c>
+      <c r="M41" s="68" t="s">
+        <v>54</v>
+      </c>
       <c r="N41" s="15"/>
       <c r="O41" s="16"/>
       <c r="P41" s="16"/>
       <c r="Q41" s="16"/>
       <c r="R41" s="17"/>
     </row>
-    <row r="42" ht="47.25" customHeight="1">
+    <row r="42" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="36">
         <f>A40+1</f>
         <v>26</v>
       </c>
-      <c r="B42" t="s" s="41">
+      <c r="B42" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C42" s="65">
         <v>4</v>
       </c>
-      <c r="D42" t="s" s="66">
+      <c r="D42" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E42" t="s" s="66">
+      <c r="E42" s="66" t="s">
         <v>81</v>
       </c>
-      <c r="F42" t="s" s="66">
+      <c r="F42" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="G42" t="s" s="66">
+      <c r="G42" s="66" t="s">
         <v>137</v>
       </c>
-      <c r="H42" t="s" s="66">
+      <c r="H42" s="66" t="s">
         <v>138</v>
       </c>
       <c r="I42" s="67"/>
       <c r="J42" s="67">
         <v>2</v>
       </c>
-      <c r="K42" s="67"/>
-      <c r="L42" s="67"/>
-      <c r="M42" t="s" s="68">
-        <v>30</v>
+      <c r="K42" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L42" s="67">
+        <v>1</v>
+      </c>
+      <c r="M42" s="68" t="s">
+        <v>54</v>
       </c>
       <c r="N42" s="15"/>
       <c r="O42" s="16"/>
@@ -5168,40 +5092,44 @@
       <c r="Q42" s="16"/>
       <c r="R42" s="17"/>
     </row>
-    <row r="43" ht="31.5" customHeight="1">
+    <row r="43" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="36">
         <f>A42+1</f>
         <v>27</v>
       </c>
-      <c r="B43" t="s" s="41">
+      <c r="B43" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C43" s="65">
         <v>4</v>
       </c>
-      <c r="D43" t="s" s="66">
+      <c r="D43" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E43" t="s" s="66">
+      <c r="E43" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="F43" t="s" s="66">
+      <c r="F43" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="G43" t="s" s="66">
+      <c r="G43" s="66" t="s">
         <v>141</v>
       </c>
-      <c r="H43" t="s" s="66">
+      <c r="H43" s="66" t="s">
         <v>142</v>
       </c>
       <c r="I43" s="67"/>
       <c r="J43" s="67">
         <v>2</v>
       </c>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" t="s" s="68">
-        <v>30</v>
+      <c r="K43" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L43" s="67">
+        <v>1</v>
+      </c>
+      <c r="M43" s="68" t="s">
+        <v>54</v>
       </c>
       <c r="N43" s="15"/>
       <c r="O43" s="16"/>
@@ -5209,112 +5137,128 @@
       <c r="Q43" s="16"/>
       <c r="R43" s="17"/>
     </row>
-    <row r="44" ht="47.25" customHeight="1">
+    <row r="44" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="36"/>
-      <c r="B44" t="s" s="41">
+      <c r="B44" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="65">
         <v>3</v>
       </c>
-      <c r="D44" t="s" s="66">
+      <c r="D44" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E44" t="s" s="66">
+      <c r="E44" s="66" t="s">
         <v>143</v>
       </c>
-      <c r="F44" t="s" s="66">
+      <c r="F44" s="66" t="s">
         <v>144</v>
       </c>
-      <c r="G44" t="s" s="66">
+      <c r="G44" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="H44" t="s" s="66">
+      <c r="H44" s="66" t="s">
         <v>146</v>
       </c>
       <c r="I44" s="67"/>
       <c r="J44" s="67">
         <v>2</v>
       </c>
-      <c r="K44" s="67"/>
-      <c r="L44" s="67"/>
-      <c r="M44" s="68"/>
+      <c r="K44" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L44" s="67">
+        <v>2</v>
+      </c>
+      <c r="M44" s="68" t="s">
+        <v>54</v>
+      </c>
       <c r="N44" s="15"/>
       <c r="O44" s="16"/>
       <c r="P44" s="16"/>
       <c r="Q44" s="16"/>
       <c r="R44" s="17"/>
     </row>
-    <row r="45" ht="31.5" customHeight="1">
+    <row r="45" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="36"/>
-      <c r="B45" t="s" s="60">
+      <c r="B45" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C45" s="67">
         <v>3</v>
       </c>
-      <c r="D45" t="s" s="66">
+      <c r="D45" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E45" t="s" s="66">
+      <c r="E45" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="F45" t="s" s="66">
+      <c r="F45" s="66" t="s">
         <v>148</v>
       </c>
-      <c r="G45" t="s" s="66">
+      <c r="G45" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="H45" t="s" s="66">
+      <c r="H45" s="66" t="s">
         <v>150</v>
       </c>
       <c r="I45" s="67"/>
       <c r="J45" s="67">
         <v>4</v>
       </c>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="68"/>
+      <c r="K45" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L45" s="67">
+        <v>2</v>
+      </c>
+      <c r="M45" s="68" t="s">
+        <v>54</v>
+      </c>
       <c r="N45" s="15"/>
       <c r="O45" s="16"/>
       <c r="P45" s="16"/>
       <c r="Q45" s="16"/>
       <c r="R45" s="17"/>
     </row>
-    <row r="46" ht="47.25" customHeight="1">
+    <row r="46" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="36">
         <f>A43+1</f>
         <v>28</v>
       </c>
-      <c r="B46" t="s" s="60">
+      <c r="B46" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C46" s="67">
         <v>3</v>
       </c>
-      <c r="D46" t="s" s="66">
+      <c r="D46" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E46" t="s" s="66">
+      <c r="E46" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="F46" t="s" s="66">
+      <c r="F46" s="66" t="s">
         <v>152</v>
       </c>
-      <c r="G46" t="s" s="66">
+      <c r="G46" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="H46" t="s" s="66">
+      <c r="H46" s="66" t="s">
         <v>154</v>
       </c>
       <c r="I46" s="67"/>
       <c r="J46" s="67">
         <v>2</v>
       </c>
-      <c r="K46" s="67"/>
-      <c r="L46" s="67"/>
-      <c r="M46" t="s" s="68">
-        <v>30</v>
+      <c r="K46" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L46" s="67">
+        <v>2</v>
+      </c>
+      <c r="M46" s="68" t="s">
+        <v>54</v>
       </c>
       <c r="N46" s="15"/>
       <c r="O46" s="16"/>
@@ -5322,146 +5266,168 @@
       <c r="Q46" s="16"/>
       <c r="R46" s="17"/>
     </row>
-    <row r="47" ht="78.75" customHeight="1">
+    <row r="47" spans="1:18" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="36"/>
-      <c r="B47" t="s" s="60">
+      <c r="B47" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C47" s="67">
         <v>3</v>
       </c>
-      <c r="D47" t="s" s="66">
+      <c r="D47" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E47" t="s" s="66">
+      <c r="E47" s="66" t="s">
         <v>155</v>
       </c>
-      <c r="F47" t="s" s="66">
+      <c r="F47" s="66" t="s">
         <v>156</v>
       </c>
-      <c r="G47" t="s" s="66">
+      <c r="G47" s="66" t="s">
         <v>157</v>
       </c>
-      <c r="H47" t="s" s="66">
+      <c r="H47" s="66" t="s">
         <v>158</v>
       </c>
       <c r="I47" s="67"/>
       <c r="J47" s="67">
         <v>4</v>
       </c>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="68"/>
+      <c r="K47" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L47" s="67">
+        <v>1</v>
+      </c>
+      <c r="M47" s="68" t="s">
+        <v>54</v>
+      </c>
       <c r="N47" s="15"/>
       <c r="O47" s="16"/>
       <c r="P47" s="16"/>
       <c r="Q47" s="16"/>
       <c r="R47" s="17"/>
     </row>
-    <row r="48" ht="63" customHeight="1">
+    <row r="48" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="36"/>
-      <c r="B48" t="s" s="60">
+      <c r="B48" s="60" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="67">
         <v>3</v>
       </c>
-      <c r="D48" t="s" s="66">
+      <c r="D48" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E48" t="s" s="66">
+      <c r="E48" s="66" t="s">
         <v>159</v>
       </c>
-      <c r="F48" t="s" s="66">
+      <c r="F48" s="66" t="s">
         <v>160</v>
       </c>
-      <c r="G48" t="s" s="66">
+      <c r="G48" s="66" t="s">
         <v>161</v>
       </c>
-      <c r="H48" t="s" s="66">
+      <c r="H48" s="66" t="s">
         <v>162</v>
       </c>
       <c r="I48" s="67"/>
       <c r="J48" s="67">
         <v>5</v>
       </c>
-      <c r="K48" s="67"/>
-      <c r="L48" s="67"/>
-      <c r="M48" s="68"/>
+      <c r="K48" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L48" s="67">
+        <v>2</v>
+      </c>
+      <c r="M48" s="68" t="s">
+        <v>54</v>
+      </c>
       <c r="N48" s="15"/>
       <c r="O48" s="16"/>
       <c r="P48" s="16"/>
       <c r="Q48" s="16"/>
       <c r="R48" s="17"/>
     </row>
-    <row r="49" ht="63" customHeight="1">
+    <row r="49" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
-      <c r="B49" t="s" s="41">
+      <c r="B49" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C49" s="65">
         <v>4</v>
       </c>
-      <c r="D49" t="s" s="66">
+      <c r="D49" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E49" t="s" s="66">
+      <c r="E49" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="F49" t="s" s="66">
+      <c r="F49" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="G49" t="s" s="66">
+      <c r="G49" s="66" t="s">
         <v>165</v>
       </c>
-      <c r="H49" t="s" s="66">
+      <c r="H49" s="66" t="s">
         <v>166</v>
       </c>
       <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
+      <c r="J49" s="67">
+        <v>3</v>
+      </c>
+      <c r="K49" s="67" t="s">
+        <v>109</v>
+      </c>
       <c r="L49" s="67"/>
-      <c r="M49" s="68"/>
+      <c r="M49" s="68" t="s">
+        <v>30</v>
+      </c>
       <c r="N49" s="15"/>
       <c r="O49" s="16"/>
       <c r="P49" s="16"/>
       <c r="Q49" s="16"/>
       <c r="R49" s="17"/>
     </row>
-    <row r="50" ht="47.25" customHeight="1">
+    <row r="50" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <f>A46+1</f>
         <v>29</v>
       </c>
-      <c r="B50" t="s" s="41">
+      <c r="B50" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C50" s="65">
         <v>4</v>
       </c>
-      <c r="D50" t="s" s="66">
+      <c r="D50" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E50" t="s" s="66">
+      <c r="E50" s="66" t="s">
         <v>167</v>
       </c>
-      <c r="F50" t="s" s="66">
+      <c r="F50" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="G50" t="s" s="66">
+      <c r="G50" s="66" t="s">
         <v>169</v>
       </c>
-      <c r="H50" t="s" s="66">
+      <c r="H50" s="66" t="s">
         <v>170</v>
       </c>
       <c r="I50" s="67"/>
       <c r="J50" s="67">
-        <v>4</v>
-      </c>
-      <c r="K50" s="67"/>
-      <c r="L50" s="67"/>
-      <c r="M50" t="s" s="68">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="K50" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L50" s="67">
+        <v>1</v>
+      </c>
+      <c r="M50" s="68" t="s">
+        <v>54</v>
       </c>
       <c r="N50" s="15"/>
       <c r="O50" s="16"/>
@@ -5469,40 +5435,44 @@
       <c r="Q50" s="16"/>
       <c r="R50" s="17"/>
     </row>
-    <row r="51" ht="47.25" customHeight="1">
+    <row r="51" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
-        <f>A50+1</f>
+        <f t="shared" ref="A51:A60" si="1">A50+1</f>
         <v>30</v>
       </c>
-      <c r="B51" t="s" s="41">
+      <c r="B51" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C51" s="65">
         <v>4</v>
       </c>
-      <c r="D51" t="s" s="66">
+      <c r="D51" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="E51" t="s" s="66">
+      <c r="E51" s="66" t="s">
         <v>171</v>
       </c>
-      <c r="F51" t="s" s="66">
+      <c r="F51" s="66" t="s">
         <v>172</v>
       </c>
-      <c r="G51" t="s" s="66">
+      <c r="G51" s="66" t="s">
         <v>173</v>
       </c>
-      <c r="H51" t="s" s="66">
+      <c r="H51" s="66" t="s">
         <v>174</v>
       </c>
       <c r="I51" s="67"/>
       <c r="J51" s="67">
-        <v>4</v>
-      </c>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" t="s" s="68">
-        <v>30</v>
+        <v>2</v>
+      </c>
+      <c r="K51" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L51" s="67">
+        <v>1</v>
+      </c>
+      <c r="M51" s="68" t="s">
+        <v>54</v>
       </c>
       <c r="N51" s="15"/>
       <c r="O51" s="16"/>
@@ -5510,42 +5480,44 @@
       <c r="Q51" s="16"/>
       <c r="R51" s="17"/>
     </row>
-    <row r="52" ht="31.5" customHeight="1">
+    <row r="52" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="69">
-        <f>A51+1</f>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="B52" t="s" s="70">
+      <c r="B52" s="70" t="s">
         <v>40</v>
       </c>
       <c r="C52" s="71">
         <v>4</v>
       </c>
-      <c r="D52" t="s" s="72">
+      <c r="D52" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E52" t="s" s="72">
+      <c r="E52" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F52" t="s" s="72">
+      <c r="F52" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="G52" t="s" s="72">
+      <c r="G52" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="H52" t="s" s="72">
+      <c r="H52" s="72" t="s">
         <v>52</v>
       </c>
       <c r="I52" s="71"/>
       <c r="J52" s="71">
         <v>2</v>
       </c>
-      <c r="K52" t="s" s="72">
+      <c r="K52" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L52" s="71"/>
-      <c r="M52" t="s" s="73">
-        <v>30</v>
+      <c r="L52" s="71">
+        <v>2</v>
+      </c>
+      <c r="M52" s="73" t="s">
+        <v>54</v>
       </c>
       <c r="N52" s="15"/>
       <c r="O52" s="16"/>
@@ -5553,357 +5525,389 @@
       <c r="Q52" s="16"/>
       <c r="R52" s="17"/>
     </row>
-    <row r="53" ht="31.5" customHeight="1">
+    <row r="53" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="69">
-        <f>A52+1</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="B53" t="s" s="74">
+      <c r="B53" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="71">
         <v>3</v>
       </c>
-      <c r="D53" t="s" s="72">
+      <c r="D53" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E53" t="s" s="72">
+      <c r="E53" s="72" t="s">
         <v>175</v>
       </c>
-      <c r="F53" t="s" s="72">
+      <c r="F53" s="72" t="s">
         <v>176</v>
       </c>
-      <c r="G53" t="s" s="72">
+      <c r="G53" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="H53" t="s" s="72">
+      <c r="H53" s="72" t="s">
         <v>178</v>
       </c>
       <c r="I53" s="71"/>
       <c r="J53" s="71">
         <v>3</v>
       </c>
-      <c r="K53" t="s" s="72">
+      <c r="K53" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L53" s="71"/>
-      <c r="M53" s="73"/>
+      <c r="L53" s="71">
+        <v>3</v>
+      </c>
+      <c r="M53" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="N53" s="15"/>
       <c r="O53" s="16"/>
       <c r="P53" s="16"/>
       <c r="Q53" s="16"/>
       <c r="R53" s="17"/>
     </row>
-    <row r="54" ht="47.25" customHeight="1">
+    <row r="54" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="69">
-        <f>A53+1</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="B54" t="s" s="74">
+      <c r="B54" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="71">
         <v>3</v>
       </c>
-      <c r="D54" t="s" s="72">
+      <c r="D54" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E54" t="s" s="72">
+      <c r="E54" s="72" t="s">
         <v>179</v>
       </c>
-      <c r="F54" t="s" s="72">
+      <c r="F54" s="72" t="s">
         <v>180</v>
       </c>
-      <c r="G54" t="s" s="72">
+      <c r="G54" s="72" t="s">
         <v>181</v>
       </c>
-      <c r="H54" t="s" s="72">
+      <c r="H54" s="72" t="s">
         <v>182</v>
       </c>
       <c r="I54" s="71"/>
       <c r="J54" s="71">
         <v>2</v>
       </c>
-      <c r="K54" t="s" s="72">
+      <c r="K54" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L54" s="71"/>
-      <c r="M54" s="73"/>
+      <c r="L54" s="71">
+        <v>2</v>
+      </c>
+      <c r="M54" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="N54" s="15"/>
       <c r="O54" s="16"/>
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="17"/>
     </row>
-    <row r="55" ht="47.25" customHeight="1">
+    <row r="55" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="69">
-        <f>A54+1</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B55" t="s" s="74">
+      <c r="B55" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="71">
         <v>3</v>
       </c>
-      <c r="D55" t="s" s="72">
+      <c r="D55" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E55" t="s" s="72">
+      <c r="E55" s="72" t="s">
         <v>183</v>
       </c>
-      <c r="F55" t="s" s="72">
+      <c r="F55" s="72" t="s">
         <v>184</v>
       </c>
-      <c r="G55" t="s" s="72">
+      <c r="G55" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="H55" t="s" s="72">
+      <c r="H55" s="72" t="s">
         <v>186</v>
       </c>
       <c r="I55" s="71"/>
       <c r="J55" s="71">
         <v>2</v>
       </c>
-      <c r="K55" t="s" s="72">
+      <c r="K55" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L55" s="71"/>
-      <c r="M55" s="73"/>
+      <c r="L55" s="71">
+        <v>2</v>
+      </c>
+      <c r="M55" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="N55" s="15"/>
       <c r="O55" s="16"/>
       <c r="P55" s="16"/>
       <c r="Q55" s="16"/>
       <c r="R55" s="17"/>
     </row>
-    <row r="56" ht="47.25" customHeight="1">
+    <row r="56" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="69">
-        <f>A55+1</f>
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B56" t="s" s="74">
+      <c r="B56" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="71">
         <v>3</v>
       </c>
-      <c r="D56" t="s" s="72">
+      <c r="D56" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E56" t="s" s="72">
+      <c r="E56" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="F56" t="s" s="72">
+      <c r="F56" s="72" t="s">
         <v>187</v>
       </c>
-      <c r="G56" t="s" s="72">
+      <c r="G56" s="72" t="s">
         <v>188</v>
       </c>
-      <c r="H56" t="s" s="72">
+      <c r="H56" s="72" t="s">
         <v>189</v>
       </c>
       <c r="I56" s="71"/>
       <c r="J56" s="71">
         <v>4</v>
       </c>
-      <c r="K56" t="s" s="72">
+      <c r="K56" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L56" s="71"/>
-      <c r="M56" s="73"/>
+      <c r="L56" s="71">
+        <v>4</v>
+      </c>
+      <c r="M56" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="N56" s="15"/>
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="17"/>
     </row>
-    <row r="57" ht="63" customHeight="1">
+    <row r="57" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="69">
-        <f>A56+1</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B57" t="s" s="75">
+      <c r="B57" s="75" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="71">
         <v>3</v>
       </c>
-      <c r="D57" t="s" s="72">
+      <c r="D57" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E57" t="s" s="72">
+      <c r="E57" s="72" t="s">
         <v>190</v>
       </c>
-      <c r="F57" t="s" s="72">
+      <c r="F57" s="72" t="s">
         <v>191</v>
       </c>
-      <c r="G57" t="s" s="72">
+      <c r="G57" s="72" t="s">
         <v>192</v>
       </c>
-      <c r="H57" t="s" s="72">
+      <c r="H57" s="72" t="s">
         <v>193</v>
       </c>
       <c r="I57" s="71"/>
       <c r="J57" s="71">
         <v>2</v>
       </c>
-      <c r="K57" t="s" s="72">
+      <c r="K57" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L57" s="71"/>
-      <c r="M57" s="73"/>
+      <c r="L57" s="71">
+        <v>2</v>
+      </c>
+      <c r="M57" s="73" t="s">
+        <v>106</v>
+      </c>
       <c r="N57" s="15"/>
       <c r="O57" s="16"/>
       <c r="P57" s="16"/>
       <c r="Q57" s="16"/>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" ht="47.25" customHeight="1">
+    <row r="58" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="69">
-        <f>A57+1</f>
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B58" t="s" s="76">
+      <c r="B58" s="76" t="s">
         <v>35</v>
       </c>
       <c r="C58" s="71">
         <v>4</v>
       </c>
-      <c r="D58" t="s" s="72">
+      <c r="D58" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E58" t="s" s="72">
+      <c r="E58" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="F58" t="s" s="72">
+      <c r="F58" s="72" t="s">
         <v>194</v>
       </c>
-      <c r="G58" t="s" s="72">
+      <c r="G58" s="72" t="s">
         <v>195</v>
       </c>
-      <c r="H58" t="s" s="72">
+      <c r="H58" s="72" t="s">
         <v>196</v>
       </c>
       <c r="I58" s="71"/>
       <c r="J58" s="71">
         <v>1</v>
       </c>
-      <c r="K58" t="s" s="72">
+      <c r="K58" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L58" s="71"/>
-      <c r="M58" s="73"/>
+      <c r="L58" s="71">
+        <v>1</v>
+      </c>
+      <c r="M58" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="N58" s="15"/>
       <c r="O58" s="16"/>
       <c r="P58" s="16"/>
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" ht="47.25" customHeight="1">
+    <row r="59" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="69">
-        <f>A58+1</f>
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B59" t="s" s="77">
+      <c r="B59" s="77" t="s">
         <v>40</v>
       </c>
       <c r="C59" s="71">
         <v>4</v>
       </c>
-      <c r="D59" t="s" s="72">
+      <c r="D59" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E59" t="s" s="72">
+      <c r="E59" s="72" t="s">
         <v>197</v>
       </c>
-      <c r="F59" t="s" s="72">
+      <c r="F59" s="72" t="s">
         <v>198</v>
       </c>
-      <c r="G59" t="s" s="72">
+      <c r="G59" s="72" t="s">
         <v>199</v>
       </c>
-      <c r="H59" t="s" s="72">
+      <c r="H59" s="72" t="s">
         <v>200</v>
       </c>
       <c r="I59" s="71"/>
       <c r="J59" s="71">
         <v>3</v>
       </c>
-      <c r="K59" t="s" s="72">
+      <c r="K59" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L59" s="71"/>
-      <c r="M59" s="73"/>
+      <c r="L59" s="71">
+        <v>3</v>
+      </c>
+      <c r="M59" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="N59" s="15"/>
       <c r="O59" s="16"/>
       <c r="P59" s="16"/>
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" ht="63" customHeight="1">
+    <row r="60" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="69">
-        <f>A59+1</f>
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B60" t="s" s="78">
+      <c r="B60" s="78" t="s">
         <v>35</v>
       </c>
       <c r="C60" s="71">
         <v>4</v>
       </c>
-      <c r="D60" t="s" s="72">
+      <c r="D60" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E60" t="s" s="72">
+      <c r="E60" s="72" t="s">
         <v>201</v>
       </c>
-      <c r="F60" t="s" s="72">
+      <c r="F60" s="72" t="s">
         <v>202</v>
       </c>
-      <c r="G60" t="s" s="72">
+      <c r="G60" s="72" t="s">
         <v>203</v>
       </c>
-      <c r="H60" t="s" s="72">
+      <c r="H60" s="72" t="s">
         <v>204</v>
       </c>
       <c r="I60" s="71"/>
       <c r="J60" s="71">
         <v>1</v>
       </c>
-      <c r="K60" t="s" s="72">
+      <c r="K60" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="L60" s="71"/>
-      <c r="M60" s="73"/>
+      <c r="L60" s="71">
+        <v>1</v>
+      </c>
+      <c r="M60" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="N60" s="15"/>
       <c r="O60" s="16"/>
       <c r="P60" s="16"/>
       <c r="Q60" s="16"/>
       <c r="R60" s="17"/>
     </row>
-    <row r="61" ht="62.15" customHeight="1">
+    <row r="61" spans="1:18" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="69">
         <v>40</v>
       </c>
-      <c r="B61" t="s" s="75">
+      <c r="B61" s="75" t="s">
         <v>25</v>
       </c>
       <c r="C61" s="79">
         <v>4</v>
       </c>
-      <c r="D61" t="s" s="80">
+      <c r="D61" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E61" t="s" s="80">
+      <c r="E61" s="80" t="s">
         <v>205</v>
       </c>
-      <c r="F61" t="s" s="80">
+      <c r="F61" s="80" t="s">
         <v>206</v>
       </c>
-      <c r="G61" t="s" s="80">
+      <c r="G61" s="80" t="s">
         <v>207</v>
       </c>
-      <c r="H61" t="s" s="80">
+      <c r="H61" s="80" t="s">
         <v>208</v>
       </c>
       <c r="I61" s="79"/>
@@ -5919,21 +5923,21 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="82">
         <f>A60+1</f>
         <v>40</v>
       </c>
-      <c r="B62" t="s" s="83">
+      <c r="B62" s="83" t="s">
         <v>40</v>
       </c>
       <c r="C62" s="84">
         <v>4</v>
       </c>
-      <c r="D62" t="s" s="85">
+      <c r="D62" s="85" t="s">
         <v>209</v>
       </c>
-      <c r="E62" t="s" s="85">
+      <c r="E62" s="85" t="s">
         <v>209</v>
       </c>
       <c r="F62" s="86"/>
@@ -5945,7 +5949,7 @@
       </c>
       <c r="K62" s="87"/>
       <c r="L62" s="86"/>
-      <c r="M62" t="s" s="88">
+      <c r="M62" s="88" t="s">
         <v>30</v>
       </c>
       <c r="N62" s="15"/>
@@ -5954,7 +5958,7 @@
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" ht="16.5" customHeight="1">
+    <row r="63" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="89"/>
       <c r="B63" s="87"/>
       <c r="C63" s="87"/>
@@ -5974,7 +5978,7 @@
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" ht="16.5" customHeight="1">
+    <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="89"/>
       <c r="B64" s="87"/>
       <c r="C64" s="87"/>
@@ -5994,7 +5998,7 @@
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
     </row>
-    <row r="65" ht="16.5" customHeight="1">
+    <row r="65" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="89"/>
       <c r="B65" s="87"/>
       <c r="C65" s="87"/>
@@ -6014,7 +6018,7 @@
       <c r="Q65" s="16"/>
       <c r="R65" s="17"/>
     </row>
-    <row r="66" ht="16.5" customHeight="1">
+    <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="91"/>
       <c r="B66" s="92"/>
       <c r="C66" s="92"/>
@@ -6034,7 +6038,7 @@
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="94"/>
       <c r="B67" s="95"/>
       <c r="C67" s="95"/>
@@ -6054,7 +6058,7 @@
       <c r="Q67" s="16"/>
       <c r="R67" s="17"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="96"/>
       <c r="B68" s="16"/>
       <c r="C68" s="16"/>
@@ -6074,7 +6078,7 @@
       <c r="Q68" s="16"/>
       <c r="R68" s="17"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="96"/>
       <c r="B69" s="16"/>
       <c r="C69" s="16"/>
@@ -6094,7 +6098,7 @@
       <c r="Q69" s="16"/>
       <c r="R69" s="17"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="96"/>
       <c r="B70" s="16"/>
       <c r="C70" s="16"/>
@@ -6114,7 +6118,7 @@
       <c r="Q70" s="16"/>
       <c r="R70" s="17"/>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="96"/>
       <c r="B71" s="16"/>
       <c r="C71" s="16"/>
@@ -6134,7 +6138,7 @@
       <c r="Q71" s="16"/>
       <c r="R71" s="17"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="96"/>
       <c r="B72" s="16"/>
       <c r="C72" s="16"/>
@@ -6154,7 +6158,7 @@
       <c r="Q72" s="16"/>
       <c r="R72" s="17"/>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="96"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -6174,7 +6178,7 @@
       <c r="Q73" s="16"/>
       <c r="R73" s="17"/>
     </row>
-    <row r="74" ht="15.75" customHeight="1">
+    <row r="74" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="96"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -6194,7 +6198,7 @@
       <c r="Q74" s="16"/>
       <c r="R74" s="17"/>
     </row>
-    <row r="75" ht="15.75" customHeight="1">
+    <row r="75" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="96"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>
@@ -6214,7 +6218,7 @@
       <c r="Q75" s="16"/>
       <c r="R75" s="17"/>
     </row>
-    <row r="76" ht="15.75" customHeight="1">
+    <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="97"/>
       <c r="B76" s="98"/>
       <c r="C76" s="98"/>
@@ -6236,7 +6240,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6244,52 +6248,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV33"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5714" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" style="100" customWidth="1"/>
-    <col min="2" max="2" width="10.5781" style="100" customWidth="1"/>
-    <col min="3" max="3" width="10.5781" style="100" customWidth="1"/>
-    <col min="4" max="4" width="13.8672" style="100" customWidth="1"/>
-    <col min="5" max="5" width="10.8672" style="100" customWidth="1"/>
-    <col min="6" max="6" width="10.8672" style="100" customWidth="1"/>
-    <col min="7" max="7" width="10.8672" style="100" customWidth="1"/>
-    <col min="8" max="8" width="10.8672" style="100" customWidth="1"/>
-    <col min="9" max="9" width="10.8672" style="100" customWidth="1"/>
-    <col min="10" max="10" width="10.8672" style="100" customWidth="1"/>
-    <col min="11" max="11" width="10.8672" style="100" customWidth="1"/>
-    <col min="12" max="12" width="10.8672" style="100" customWidth="1"/>
-    <col min="13" max="13" width="10.8672" style="100" customWidth="1"/>
-    <col min="14" max="14" width="10.8672" style="100" customWidth="1"/>
-    <col min="15" max="15" width="10.8672" style="100" customWidth="1"/>
-    <col min="16" max="256" width="13.5781" style="100" customWidth="1"/>
+    <col min="2" max="3" width="10.625" style="100" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="100" customWidth="1"/>
+    <col min="5" max="15" width="10.875" style="100" customWidth="1"/>
+    <col min="16" max="256" width="13.625" style="100" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" t="s" s="101">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B1" t="s" s="21">
+      <c r="B1" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C1" t="s" s="21">
+      <c r="D1" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="D1" t="s" s="21">
+      <c r="E1" s="21" t="s">
         <v>213</v>
       </c>
-      <c r="E1" t="s" s="21">
+      <c r="F1" s="21" t="s">
         <v>214</v>
       </c>
-      <c r="F1" t="s" s="21">
+      <c r="G1" s="21" t="s">
         <v>215</v>
-      </c>
-      <c r="G1" t="s" s="21">
-        <v>216</v>
       </c>
       <c r="H1" s="12"/>
       <c r="I1" s="102"/>
@@ -6300,21 +6295,21 @@
       <c r="N1" s="8"/>
       <c r="O1" s="9"/>
     </row>
-    <row r="2" ht="15" customHeight="1">
+    <row r="2" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="103">
         <v>2</v>
       </c>
       <c r="B2" s="12">
         <f>SUM('Product Backlog'!$J1:$J66)</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" s="12">
         <f>B2-SUM($F2:$F$4)+SUM($G2:$G$4)</f>
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="E2" s="12">
         <f>SUMIF('Product Backlog'!$C1:$C66,$A2,'Product Backlog'!$J1:$J66)</f>
@@ -6322,11 +6317,11 @@
       </c>
       <c r="F2" s="12">
         <f>SUMIFS('Product Backlog'!$J1:$J66,'Product Backlog'!$C1:$C66,$A2,'Product Backlog'!$L1:$L66,"&gt;0")</f>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G2" s="12">
         <f>SUMIF('Product Backlog'!$C1:$C66,$A2,'Product Backlog'!$L1:$L66)</f>
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="96"/>
@@ -6337,21 +6332,21 @@
       <c r="N2" s="16"/>
       <c r="O2" s="17"/>
     </row>
-    <row r="3" ht="15" customHeight="1">
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="103">
         <v>3</v>
       </c>
       <c r="B3" s="12">
         <f>B2-F2</f>
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C3" s="12">
         <f>C2-E2</f>
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="12">
         <f>B3-SUM($F3:$F$4)+SUM($G3:$G$4)</f>
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="E3" s="12">
         <f>SUMIF('Product Backlog'!$C1:$C66,$A3,'Product Backlog'!$J1:$J66)</f>
@@ -6359,11 +6354,11 @@
       </c>
       <c r="F3" s="12">
         <f>SUMIFS('Product Backlog'!$J1:$J66,'Product Backlog'!$C1:$C66,$A3,'Product Backlog'!$L1:$L66,"&gt;0")</f>
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G3" s="12">
         <f>SUMIF('Product Backlog'!$C1:$C66,$A3,'Product Backlog'!$L1:$L66)</f>
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="96"/>
@@ -6374,33 +6369,33 @@
       <c r="N3" s="16"/>
       <c r="O3" s="17"/>
     </row>
-    <row r="4" ht="15" customHeight="1">
+    <row r="4" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="103">
         <v>4</v>
       </c>
       <c r="B4" s="12">
         <f>B3-F3</f>
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="C4" s="12">
         <f>C3-E3</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" s="12">
         <f>B4-SUM($F4:$F$4)+SUM($G4:$G$4)</f>
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="E4" s="12">
         <f>SUMIF('Product Backlog'!$C1:$C66,$A4,'Product Backlog'!$J1:$J66)</f>
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F4" s="12">
         <f>SUMIFS('Product Backlog'!$J1:$J66,'Product Backlog'!$C1:$C66,$A4,'Product Backlog'!$L1:$L66,"&gt;0")</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G4" s="12">
         <f>SUMIF('Product Backlog'!$C1:$C66,$A4,'Product Backlog'!$L1:$L66)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="96"/>
@@ -6411,13 +6406,13 @@
       <c r="N4" s="16"/>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" t="s" s="101">
-        <v>217</v>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="101" t="s">
+        <v>216</v>
       </c>
       <c r="B5" s="12">
         <f>B4-F4</f>
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C5" s="12">
         <f>C4-E4</f>
@@ -6425,7 +6420,7 @@
       </c>
       <c r="D5" s="12">
         <f>B5</f>
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -6439,7 +6434,7 @@
       <c r="N5" s="16"/>
       <c r="O5" s="17"/>
     </row>
-    <row r="6" ht="15" customHeight="1">
+    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="103"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -6456,7 +6451,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" ht="15" customHeight="1">
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="103"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -6473,7 +6468,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" ht="15" customHeight="1">
+    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="103"/>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -6490,7 +6485,7 @@
       <c r="N8" s="16"/>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" ht="15" customHeight="1">
+    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="103"/>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -6507,7 +6502,7 @@
       <c r="N9" s="16"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" ht="15" customHeight="1">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="103"/>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -6524,7 +6519,7 @@
       <c r="N10" s="16"/>
       <c r="O10" s="17"/>
     </row>
-    <row r="11" ht="15" customHeight="1">
+    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="103"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -6541,7 +6536,7 @@
       <c r="N11" s="16"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" ht="15" customHeight="1">
+    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="103"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -6558,7 +6553,7 @@
       <c r="N12" s="16"/>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" ht="15" customHeight="1">
+    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="103"/>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -6575,7 +6570,7 @@
       <c r="N13" s="16"/>
       <c r="O13" s="17"/>
     </row>
-    <row r="14" ht="15" customHeight="1">
+    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="103"/>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -6592,7 +6587,7 @@
       <c r="N14" s="16"/>
       <c r="O14" s="17"/>
     </row>
-    <row r="15" ht="15" customHeight="1">
+    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="103"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -6609,7 +6604,7 @@
       <c r="N15" s="16"/>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" ht="15" customHeight="1">
+    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="103"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -6626,7 +6621,7 @@
       <c r="N16" s="16"/>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" ht="15" customHeight="1">
+    <row r="17" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="103"/>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -6643,7 +6638,7 @@
       <c r="N17" s="16"/>
       <c r="O17" s="17"/>
     </row>
-    <row r="18" ht="15" customHeight="1">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="103"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -6660,7 +6655,7 @@
       <c r="N18" s="16"/>
       <c r="O18" s="17"/>
     </row>
-    <row r="19" ht="15" customHeight="1">
+    <row r="19" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="103"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -6677,7 +6672,7 @@
       <c r="N19" s="16"/>
       <c r="O19" s="17"/>
     </row>
-    <row r="20" ht="15" customHeight="1">
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="103"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -6694,7 +6689,7 @@
       <c r="N20" s="16"/>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" ht="15" customHeight="1">
+    <row r="21" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="103"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -6711,7 +6706,7 @@
       <c r="N21" s="16"/>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" ht="15" customHeight="1">
+    <row r="22" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="103"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -6728,7 +6723,7 @@
       <c r="N22" s="16"/>
       <c r="O22" s="17"/>
     </row>
-    <row r="23" ht="15" customHeight="1">
+    <row r="23" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="103"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -6745,7 +6740,7 @@
       <c r="N23" s="16"/>
       <c r="O23" s="17"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="102"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -6762,7 +6757,7 @@
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="96"/>
       <c r="B25" s="16"/>
       <c r="C25" s="16"/>
@@ -6779,7 +6774,7 @@
       <c r="N25" s="16"/>
       <c r="O25" s="17"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="96"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
@@ -6796,7 +6791,7 @@
       <c r="N26" s="16"/>
       <c r="O26" s="17"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="96"/>
       <c r="B27" s="16"/>
       <c r="C27" s="16"/>
@@ -6813,7 +6808,7 @@
       <c r="N27" s="16"/>
       <c r="O27" s="17"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="96"/>
       <c r="B28" s="16"/>
       <c r="C28" s="16"/>
@@ -6830,7 +6825,7 @@
       <c r="N28" s="16"/>
       <c r="O28" s="17"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="96"/>
       <c r="B29" s="16"/>
       <c r="C29" s="16"/>
@@ -6847,7 +6842,7 @@
       <c r="N29" s="16"/>
       <c r="O29" s="17"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="96"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
@@ -6864,7 +6859,7 @@
       <c r="N30" s="16"/>
       <c r="O30" s="17"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="96"/>
       <c r="B31" s="16"/>
       <c r="C31" s="16"/>
@@ -6881,7 +6876,7 @@
       <c r="N31" s="16"/>
       <c r="O31" s="17"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="96"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
@@ -6898,7 +6893,7 @@
       <c r="N32" s="16"/>
       <c r="O32" s="17"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="97"/>
       <c r="B33" s="98"/>
       <c r="C33" s="98"/>
@@ -6917,7 +6912,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/docs/Product backlog.xlsx
+++ b/docs/Product backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="221">
   <si>
     <t>GoRoffaGo</t>
   </si>
@@ -679,6 +679,18 @@
   </si>
   <si>
     <t>End</t>
+  </si>
+  <si>
+    <t>Step weergave</t>
+  </si>
+  <si>
+    <t>Als speler wil ik dat bij het uitvoeren van een stap van elke truck wordt weergegeven wat het commando is dat wordt uitgevoerd zodat ik kan zien welke richting de trucks gaan bewegen.</t>
+  </si>
+  <si>
+    <t>Maak in het programma gedeelte zichtbaar welke stappen worden uitgevoerd.</t>
+  </si>
+  <si>
+    <t>Controleer of bij het uitvoeren de commando's worden weergegeven.</t>
   </si>
 </sst>
 </file>
@@ -783,7 +795,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="62">
+  <borders count="63">
     <border>
       <left/>
       <right/>
@@ -1568,11 +1580,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1797,6 +1822,9 @@
     <xf numFmtId="49" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1965,13 +1993,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>129</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2041,16 +2069,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>129</c:v>
+                  <c:v>132</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>91</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,16 +2145,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>112</c:v>
+                  <c:v>115</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>77</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2143,11 +2171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1817595984"/>
-        <c:axId val="1817596528"/>
+        <c:axId val="-1417581760"/>
+        <c:axId val="-1417579584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1817595984"/>
+        <c:axId val="-1417581760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2181,7 +2209,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1817596528"/>
+        <c:crossAx val="-1417579584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2189,7 +2217,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1817596528"/>
+        <c:axId val="-1417579584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2232,7 +2260,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1817595984"/>
+        <c:crossAx val="-1417581760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="35"/>
@@ -3451,10 +3479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV76"/>
+  <dimension ref="A1:IV77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5351,7 +5379,7 @@
       <c r="Q48" s="16"/>
       <c r="R48" s="17"/>
     </row>
-    <row r="49" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="36"/>
       <c r="B49" s="41" t="s">
         <v>35</v>
@@ -5391,7 +5419,7 @@
       <c r="Q49" s="16"/>
       <c r="R49" s="17"/>
     </row>
-    <row r="50" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="36">
         <f>A46+1</f>
         <v>29</v>
@@ -5436,9 +5464,9 @@
       <c r="Q50" s="16"/>
       <c r="R50" s="17"/>
     </row>
-    <row r="51" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="36">
-        <f t="shared" ref="A51:A60" si="1">A50+1</f>
+        <f t="shared" ref="A51:A61" si="1">A50+1</f>
         <v>30</v>
       </c>
       <c r="B51" s="41" t="s">
@@ -5481,86 +5509,317 @@
       <c r="Q51" s="16"/>
       <c r="R51" s="17"/>
     </row>
-    <row r="52" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="69">
-        <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
+    <row r="52" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="104"/>
       <c r="B52" s="70" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="71">
+      <c r="C52" s="67">
         <v>4</v>
       </c>
-      <c r="D52" s="72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E52" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="F52" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="G52" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="H52" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="71"/>
-      <c r="J52" s="71">
-        <v>2</v>
-      </c>
-      <c r="K52" s="72" t="s">
-        <v>85</v>
-      </c>
-      <c r="L52" s="71">
-        <v>2</v>
-      </c>
-      <c r="M52" s="73" t="s">
-        <v>54</v>
-      </c>
+      <c r="D52" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="E52" s="66" t="s">
+        <v>217</v>
+      </c>
+      <c r="F52" s="66" t="s">
+        <v>218</v>
+      </c>
+      <c r="G52" s="66" t="s">
+        <v>219</v>
+      </c>
+      <c r="H52" s="66" t="s">
+        <v>220</v>
+      </c>
+      <c r="I52" s="67"/>
+      <c r="J52" s="67">
+        <v>3</v>
+      </c>
+      <c r="K52" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="L52" s="67"/>
+      <c r="M52" s="68"/>
       <c r="N52" s="15"/>
       <c r="O52" s="16"/>
       <c r="P52" s="16"/>
       <c r="Q52" s="16"/>
       <c r="R52" s="17"/>
-    </row>
-    <row r="53" spans="1:18" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S52" s="100"/>
+      <c r="T52" s="100"/>
+      <c r="U52" s="100"/>
+      <c r="V52" s="100"/>
+      <c r="W52" s="100"/>
+      <c r="X52" s="100"/>
+      <c r="Y52" s="100"/>
+      <c r="Z52" s="100"/>
+      <c r="AA52" s="100"/>
+      <c r="AB52" s="100"/>
+      <c r="AC52" s="100"/>
+      <c r="AD52" s="100"/>
+      <c r="AE52" s="100"/>
+      <c r="AF52" s="100"/>
+      <c r="AG52" s="100"/>
+      <c r="AH52" s="100"/>
+      <c r="AI52" s="100"/>
+      <c r="AJ52" s="100"/>
+      <c r="AK52" s="100"/>
+      <c r="AL52" s="100"/>
+      <c r="AM52" s="100"/>
+      <c r="AN52" s="100"/>
+      <c r="AO52" s="100"/>
+      <c r="AP52" s="100"/>
+      <c r="AQ52" s="100"/>
+      <c r="AR52" s="100"/>
+      <c r="AS52" s="100"/>
+      <c r="AT52" s="100"/>
+      <c r="AU52" s="100"/>
+      <c r="AV52" s="100"/>
+      <c r="AW52" s="100"/>
+      <c r="AX52" s="100"/>
+      <c r="AY52" s="100"/>
+      <c r="AZ52" s="100"/>
+      <c r="BA52" s="100"/>
+      <c r="BB52" s="100"/>
+      <c r="BC52" s="100"/>
+      <c r="BD52" s="100"/>
+      <c r="BE52" s="100"/>
+      <c r="BF52" s="100"/>
+      <c r="BG52" s="100"/>
+      <c r="BH52" s="100"/>
+      <c r="BI52" s="100"/>
+      <c r="BJ52" s="100"/>
+      <c r="BK52" s="100"/>
+      <c r="BL52" s="100"/>
+      <c r="BM52" s="100"/>
+      <c r="BN52" s="100"/>
+      <c r="BO52" s="100"/>
+      <c r="BP52" s="100"/>
+      <c r="BQ52" s="100"/>
+      <c r="BR52" s="100"/>
+      <c r="BS52" s="100"/>
+      <c r="BT52" s="100"/>
+      <c r="BU52" s="100"/>
+      <c r="BV52" s="100"/>
+      <c r="BW52" s="100"/>
+      <c r="BX52" s="100"/>
+      <c r="BY52" s="100"/>
+      <c r="BZ52" s="100"/>
+      <c r="CA52" s="100"/>
+      <c r="CB52" s="100"/>
+      <c r="CC52" s="100"/>
+      <c r="CD52" s="100"/>
+      <c r="CE52" s="100"/>
+      <c r="CF52" s="100"/>
+      <c r="CG52" s="100"/>
+      <c r="CH52" s="100"/>
+      <c r="CI52" s="100"/>
+      <c r="CJ52" s="100"/>
+      <c r="CK52" s="100"/>
+      <c r="CL52" s="100"/>
+      <c r="CM52" s="100"/>
+      <c r="CN52" s="100"/>
+      <c r="CO52" s="100"/>
+      <c r="CP52" s="100"/>
+      <c r="CQ52" s="100"/>
+      <c r="CR52" s="100"/>
+      <c r="CS52" s="100"/>
+      <c r="CT52" s="100"/>
+      <c r="CU52" s="100"/>
+      <c r="CV52" s="100"/>
+      <c r="CW52" s="100"/>
+      <c r="CX52" s="100"/>
+      <c r="CY52" s="100"/>
+      <c r="CZ52" s="100"/>
+      <c r="DA52" s="100"/>
+      <c r="DB52" s="100"/>
+      <c r="DC52" s="100"/>
+      <c r="DD52" s="100"/>
+      <c r="DE52" s="100"/>
+      <c r="DF52" s="100"/>
+      <c r="DG52" s="100"/>
+      <c r="DH52" s="100"/>
+      <c r="DI52" s="100"/>
+      <c r="DJ52" s="100"/>
+      <c r="DK52" s="100"/>
+      <c r="DL52" s="100"/>
+      <c r="DM52" s="100"/>
+      <c r="DN52" s="100"/>
+      <c r="DO52" s="100"/>
+      <c r="DP52" s="100"/>
+      <c r="DQ52" s="100"/>
+      <c r="DR52" s="100"/>
+      <c r="DS52" s="100"/>
+      <c r="DT52" s="100"/>
+      <c r="DU52" s="100"/>
+      <c r="DV52" s="100"/>
+      <c r="DW52" s="100"/>
+      <c r="DX52" s="100"/>
+      <c r="DY52" s="100"/>
+      <c r="DZ52" s="100"/>
+      <c r="EA52" s="100"/>
+      <c r="EB52" s="100"/>
+      <c r="EC52" s="100"/>
+      <c r="ED52" s="100"/>
+      <c r="EE52" s="100"/>
+      <c r="EF52" s="100"/>
+      <c r="EG52" s="100"/>
+      <c r="EH52" s="100"/>
+      <c r="EI52" s="100"/>
+      <c r="EJ52" s="100"/>
+      <c r="EK52" s="100"/>
+      <c r="EL52" s="100"/>
+      <c r="EM52" s="100"/>
+      <c r="EN52" s="100"/>
+      <c r="EO52" s="100"/>
+      <c r="EP52" s="100"/>
+      <c r="EQ52" s="100"/>
+      <c r="ER52" s="100"/>
+      <c r="ES52" s="100"/>
+      <c r="ET52" s="100"/>
+      <c r="EU52" s="100"/>
+      <c r="EV52" s="100"/>
+      <c r="EW52" s="100"/>
+      <c r="EX52" s="100"/>
+      <c r="EY52" s="100"/>
+      <c r="EZ52" s="100"/>
+      <c r="FA52" s="100"/>
+      <c r="FB52" s="100"/>
+      <c r="FC52" s="100"/>
+      <c r="FD52" s="100"/>
+      <c r="FE52" s="100"/>
+      <c r="FF52" s="100"/>
+      <c r="FG52" s="100"/>
+      <c r="FH52" s="100"/>
+      <c r="FI52" s="100"/>
+      <c r="FJ52" s="100"/>
+      <c r="FK52" s="100"/>
+      <c r="FL52" s="100"/>
+      <c r="FM52" s="100"/>
+      <c r="FN52" s="100"/>
+      <c r="FO52" s="100"/>
+      <c r="FP52" s="100"/>
+      <c r="FQ52" s="100"/>
+      <c r="FR52" s="100"/>
+      <c r="FS52" s="100"/>
+      <c r="FT52" s="100"/>
+      <c r="FU52" s="100"/>
+      <c r="FV52" s="100"/>
+      <c r="FW52" s="100"/>
+      <c r="FX52" s="100"/>
+      <c r="FY52" s="100"/>
+      <c r="FZ52" s="100"/>
+      <c r="GA52" s="100"/>
+      <c r="GB52" s="100"/>
+      <c r="GC52" s="100"/>
+      <c r="GD52" s="100"/>
+      <c r="GE52" s="100"/>
+      <c r="GF52" s="100"/>
+      <c r="GG52" s="100"/>
+      <c r="GH52" s="100"/>
+      <c r="GI52" s="100"/>
+      <c r="GJ52" s="100"/>
+      <c r="GK52" s="100"/>
+      <c r="GL52" s="100"/>
+      <c r="GM52" s="100"/>
+      <c r="GN52" s="100"/>
+      <c r="GO52" s="100"/>
+      <c r="GP52" s="100"/>
+      <c r="GQ52" s="100"/>
+      <c r="GR52" s="100"/>
+      <c r="GS52" s="100"/>
+      <c r="GT52" s="100"/>
+      <c r="GU52" s="100"/>
+      <c r="GV52" s="100"/>
+      <c r="GW52" s="100"/>
+      <c r="GX52" s="100"/>
+      <c r="GY52" s="100"/>
+      <c r="GZ52" s="100"/>
+      <c r="HA52" s="100"/>
+      <c r="HB52" s="100"/>
+      <c r="HC52" s="100"/>
+      <c r="HD52" s="100"/>
+      <c r="HE52" s="100"/>
+      <c r="HF52" s="100"/>
+      <c r="HG52" s="100"/>
+      <c r="HH52" s="100"/>
+      <c r="HI52" s="100"/>
+      <c r="HJ52" s="100"/>
+      <c r="HK52" s="100"/>
+      <c r="HL52" s="100"/>
+      <c r="HM52" s="100"/>
+      <c r="HN52" s="100"/>
+      <c r="HO52" s="100"/>
+      <c r="HP52" s="100"/>
+      <c r="HQ52" s="100"/>
+      <c r="HR52" s="100"/>
+      <c r="HS52" s="100"/>
+      <c r="HT52" s="100"/>
+      <c r="HU52" s="100"/>
+      <c r="HV52" s="100"/>
+      <c r="HW52" s="100"/>
+      <c r="HX52" s="100"/>
+      <c r="HY52" s="100"/>
+      <c r="HZ52" s="100"/>
+      <c r="IA52" s="100"/>
+      <c r="IB52" s="100"/>
+      <c r="IC52" s="100"/>
+      <c r="ID52" s="100"/>
+      <c r="IE52" s="100"/>
+      <c r="IF52" s="100"/>
+      <c r="IG52" s="100"/>
+      <c r="IH52" s="100"/>
+      <c r="II52" s="100"/>
+      <c r="IJ52" s="100"/>
+      <c r="IK52" s="100"/>
+      <c r="IL52" s="100"/>
+      <c r="IM52" s="100"/>
+      <c r="IN52" s="100"/>
+      <c r="IO52" s="100"/>
+      <c r="IP52" s="100"/>
+      <c r="IQ52" s="100"/>
+      <c r="IR52" s="100"/>
+      <c r="IS52" s="100"/>
+      <c r="IT52" s="100"/>
+      <c r="IU52" s="100"/>
+      <c r="IV52" s="100"/>
+    </row>
+    <row r="53" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="69">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B53" s="74" t="s">
-        <v>25</v>
+        <f>A51+1</f>
+        <v>31</v>
+      </c>
+      <c r="B53" s="70" t="s">
+        <v>40</v>
       </c>
       <c r="C53" s="71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" s="72" t="s">
         <v>11</v>
       </c>
       <c r="E53" s="72" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="F53" s="72" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="G53" s="72" t="s">
-        <v>177</v>
+        <v>51</v>
       </c>
       <c r="H53" s="72" t="s">
-        <v>178</v>
+        <v>52</v>
       </c>
       <c r="I53" s="71"/>
       <c r="J53" s="71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K53" s="72" t="s">
         <v>85</v>
       </c>
       <c r="L53" s="71">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M53" s="73" t="s">
         <v>54</v>
@@ -5571,10 +5830,10 @@
       <c r="Q53" s="16"/>
       <c r="R53" s="17"/>
     </row>
-    <row r="54" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="69">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B54" s="74" t="s">
         <v>25</v>
@@ -5586,26 +5845,26 @@
         <v>11</v>
       </c>
       <c r="E54" s="72" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F54" s="72" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G54" s="72" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H54" s="72" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="I54" s="71"/>
       <c r="J54" s="71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K54" s="72" t="s">
         <v>85</v>
       </c>
       <c r="L54" s="71">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M54" s="73" t="s">
         <v>54</v>
@@ -5616,10 +5875,10 @@
       <c r="Q54" s="16"/>
       <c r="R54" s="17"/>
     </row>
-    <row r="55" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="69">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B55" s="74" t="s">
         <v>25</v>
@@ -5631,16 +5890,16 @@
         <v>11</v>
       </c>
       <c r="E55" s="72" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F55" s="72" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="G55" s="72" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="H55" s="72" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="I55" s="71"/>
       <c r="J55" s="71">
@@ -5661,10 +5920,10 @@
       <c r="Q55" s="16"/>
       <c r="R55" s="17"/>
     </row>
-    <row r="56" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="69">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B56" s="74" t="s">
         <v>25</v>
@@ -5676,26 +5935,26 @@
         <v>11</v>
       </c>
       <c r="E56" s="72" t="s">
-        <v>90</v>
+        <v>183</v>
       </c>
       <c r="F56" s="72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G56" s="72" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="H56" s="72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="I56" s="71"/>
       <c r="J56" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K56" s="72" t="s">
         <v>85</v>
       </c>
       <c r="L56" s="71">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" s="73" t="s">
         <v>54</v>
@@ -5706,12 +5965,12 @@
       <c r="Q56" s="16"/>
       <c r="R56" s="17"/>
     </row>
-    <row r="57" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="69">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B57" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="B57" s="74" t="s">
         <v>25</v>
       </c>
       <c r="C57" s="71">
@@ -5721,29 +5980,29 @@
         <v>11</v>
       </c>
       <c r="E57" s="72" t="s">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="F57" s="72" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G57" s="72" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H57" s="72" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I57" s="71"/>
       <c r="J57" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K57" s="72" t="s">
         <v>85</v>
       </c>
       <c r="L57" s="71">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M57" s="73" t="s">
-        <v>106</v>
+        <v>54</v>
       </c>
       <c r="N57" s="15"/>
       <c r="O57" s="16"/>
@@ -5751,44 +6010,44 @@
       <c r="Q57" s="16"/>
       <c r="R57" s="17"/>
     </row>
-    <row r="58" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="69">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B58" s="76" t="s">
-        <v>35</v>
+        <v>36</v>
+      </c>
+      <c r="B58" s="75" t="s">
+        <v>25</v>
       </c>
       <c r="C58" s="71">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" s="72" t="s">
         <v>11</v>
       </c>
       <c r="E58" s="72" t="s">
-        <v>81</v>
+        <v>190</v>
       </c>
       <c r="F58" s="72" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G58" s="72" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H58" s="72" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I58" s="71"/>
       <c r="J58" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K58" s="72" t="s">
         <v>85</v>
       </c>
       <c r="L58" s="71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M58" s="73" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="N58" s="15"/>
       <c r="O58" s="16"/>
@@ -5796,13 +6055,13 @@
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" spans="1:18" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="69">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B59" s="77" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="B59" s="76" t="s">
+        <v>35</v>
       </c>
       <c r="C59" s="71">
         <v>4</v>
@@ -5811,26 +6070,26 @@
         <v>11</v>
       </c>
       <c r="E59" s="72" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="F59" s="72" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G59" s="72" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H59" s="72" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="I59" s="71"/>
       <c r="J59" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K59" s="72" t="s">
         <v>85</v>
       </c>
       <c r="L59" s="71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M59" s="73" t="s">
         <v>54</v>
@@ -5841,13 +6100,13 @@
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" spans="1:18" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="69">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="B60" s="78" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="B60" s="77" t="s">
+        <v>40</v>
       </c>
       <c r="C60" s="71">
         <v>4</v>
@@ -5856,26 +6115,26 @@
         <v>11</v>
       </c>
       <c r="E60" s="72" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F60" s="72" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G60" s="72" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H60" s="72" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I60" s="71"/>
       <c r="J60" s="71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K60" s="72" t="s">
         <v>85</v>
       </c>
       <c r="L60" s="71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M60" s="73" t="s">
         <v>54</v>
@@ -5886,100 +6145,125 @@
       <c r="Q60" s="16"/>
       <c r="R60" s="17"/>
     </row>
-    <row r="61" spans="1:18" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="69">
-        <v>40</v>
-      </c>
-      <c r="B61" s="75" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="79">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B61" s="78" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="71">
         <v>4</v>
       </c>
-      <c r="D61" s="80" t="s">
+      <c r="D61" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="E61" s="80" t="s">
-        <v>205</v>
-      </c>
-      <c r="F61" s="80" t="s">
-        <v>206</v>
-      </c>
-      <c r="G61" s="80" t="s">
-        <v>207</v>
-      </c>
-      <c r="H61" s="80" t="s">
-        <v>208</v>
-      </c>
-      <c r="I61" s="79"/>
-      <c r="J61" s="79">
-        <v>5</v>
-      </c>
-      <c r="K61" s="72"/>
-      <c r="L61" s="79"/>
-      <c r="M61" s="81"/>
+      <c r="E61" s="72" t="s">
+        <v>201</v>
+      </c>
+      <c r="F61" s="72" t="s">
+        <v>202</v>
+      </c>
+      <c r="G61" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="H61" s="72" t="s">
+        <v>204</v>
+      </c>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71">
+        <v>1</v>
+      </c>
+      <c r="K61" s="72" t="s">
+        <v>85</v>
+      </c>
+      <c r="L61" s="71">
+        <v>1</v>
+      </c>
+      <c r="M61" s="73" t="s">
+        <v>54</v>
+      </c>
       <c r="N61" s="15"/>
       <c r="O61" s="16"/>
       <c r="P61" s="16"/>
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="82">
-        <f>A60+1</f>
+    <row r="62" spans="1:256" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="69">
         <v>40</v>
       </c>
-      <c r="B62" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C62" s="84">
+      <c r="B62" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="79">
         <v>4</v>
       </c>
-      <c r="D62" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="E62" s="85" t="s">
-        <v>209</v>
-      </c>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="86"/>
-      <c r="I62" s="86"/>
-      <c r="J62" s="86">
-        <v>8</v>
-      </c>
-      <c r="K62" s="87"/>
-      <c r="L62" s="86"/>
-      <c r="M62" s="88" t="s">
-        <v>30</v>
-      </c>
+      <c r="D62" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="80" t="s">
+        <v>205</v>
+      </c>
+      <c r="F62" s="80" t="s">
+        <v>206</v>
+      </c>
+      <c r="G62" s="80" t="s">
+        <v>207</v>
+      </c>
+      <c r="H62" s="80" t="s">
+        <v>208</v>
+      </c>
+      <c r="I62" s="79"/>
+      <c r="J62" s="79">
+        <v>5</v>
+      </c>
+      <c r="K62" s="72"/>
+      <c r="L62" s="79"/>
+      <c r="M62" s="81"/>
       <c r="N62" s="15"/>
       <c r="O62" s="16"/>
       <c r="P62" s="16"/>
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="89"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
+    <row r="63" spans="1:256" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="82">
+        <f>A61+1</f>
+        <v>40</v>
+      </c>
+      <c r="B63" s="83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C63" s="84">
+        <v>4</v>
+      </c>
+      <c r="D63" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="E63" s="85" t="s">
+        <v>209</v>
+      </c>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="H63" s="86"/>
+      <c r="I63" s="86"/>
+      <c r="J63" s="86">
+        <v>8</v>
+      </c>
       <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="90"/>
+      <c r="L63" s="86"/>
+      <c r="M63" s="88" t="s">
+        <v>30</v>
+      </c>
       <c r="N63" s="15"/>
       <c r="O63" s="16"/>
       <c r="P63" s="16"/>
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:256" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="89"/>
       <c r="B64" s="87"/>
       <c r="C64" s="87"/>
@@ -6020,59 +6304,59 @@
       <c r="R65" s="17"/>
     </row>
     <row r="66" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="91"/>
-      <c r="B66" s="92"/>
-      <c r="C66" s="92"/>
-      <c r="D66" s="92"/>
-      <c r="E66" s="92"/>
-      <c r="F66" s="92"/>
-      <c r="G66" s="92"/>
-      <c r="H66" s="92"/>
-      <c r="I66" s="92"/>
-      <c r="J66" s="92"/>
-      <c r="K66" s="92"/>
-      <c r="L66" s="92"/>
-      <c r="M66" s="93"/>
+      <c r="A66" s="89"/>
+      <c r="B66" s="87"/>
+      <c r="C66" s="87"/>
+      <c r="D66" s="87"/>
+      <c r="E66" s="87"/>
+      <c r="F66" s="87"/>
+      <c r="G66" s="87"/>
+      <c r="H66" s="87"/>
+      <c r="I66" s="87"/>
+      <c r="J66" s="87"/>
+      <c r="K66" s="87"/>
+      <c r="L66" s="87"/>
+      <c r="M66" s="90"/>
       <c r="N66" s="15"/>
       <c r="O66" s="16"/>
       <c r="P66" s="16"/>
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
     </row>
-    <row r="67" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="94"/>
-      <c r="B67" s="95"/>
-      <c r="C67" s="95"/>
-      <c r="D67" s="95"/>
-      <c r="E67" s="95"/>
-      <c r="F67" s="95"/>
-      <c r="G67" s="95"/>
-      <c r="H67" s="95"/>
-      <c r="I67" s="95"/>
-      <c r="J67" s="95"/>
-      <c r="K67" s="95"/>
-      <c r="L67" s="95"/>
-      <c r="M67" s="95"/>
-      <c r="N67" s="16"/>
+    <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="91"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="92"/>
+      <c r="D67" s="92"/>
+      <c r="E67" s="92"/>
+      <c r="F67" s="92"/>
+      <c r="G67" s="92"/>
+      <c r="H67" s="92"/>
+      <c r="I67" s="92"/>
+      <c r="J67" s="92"/>
+      <c r="K67" s="92"/>
+      <c r="L67" s="92"/>
+      <c r="M67" s="93"/>
+      <c r="N67" s="15"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
       <c r="Q67" s="16"/>
       <c r="R67" s="17"/>
     </row>
     <row r="68" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="96"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-      <c r="D68" s="16"/>
-      <c r="E68" s="16"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="16"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="16"/>
-      <c r="K68" s="16"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="16"/>
+      <c r="A68" s="94"/>
+      <c r="B68" s="95"/>
+      <c r="C68" s="95"/>
+      <c r="D68" s="95"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="95"/>
+      <c r="G68" s="95"/>
+      <c r="H68" s="95"/>
+      <c r="I68" s="95"/>
+      <c r="J68" s="95"/>
+      <c r="K68" s="95"/>
+      <c r="L68" s="95"/>
+      <c r="M68" s="95"/>
       <c r="N68" s="16"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
@@ -6220,24 +6504,44 @@
       <c r="R75" s="17"/>
     </row>
     <row r="76" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="97"/>
-      <c r="B76" s="98"/>
-      <c r="C76" s="98"/>
-      <c r="D76" s="98"/>
-      <c r="E76" s="98"/>
-      <c r="F76" s="98"/>
-      <c r="G76" s="98"/>
-      <c r="H76" s="98"/>
-      <c r="I76" s="98"/>
-      <c r="J76" s="98"/>
-      <c r="K76" s="98"/>
-      <c r="L76" s="98"/>
-      <c r="M76" s="98"/>
-      <c r="N76" s="98"/>
-      <c r="O76" s="98"/>
-      <c r="P76" s="98"/>
-      <c r="Q76" s="98"/>
-      <c r="R76" s="99"/>
+      <c r="A76" s="96"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="16"/>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16"/>
+      <c r="N76" s="16"/>
+      <c r="O76" s="16"/>
+      <c r="P76" s="16"/>
+      <c r="Q76" s="16"/>
+      <c r="R76" s="17"/>
+    </row>
+    <row r="77" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="97"/>
+      <c r="B77" s="98"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="98"/>
+      <c r="H77" s="98"/>
+      <c r="I77" s="98"/>
+      <c r="J77" s="98"/>
+      <c r="K77" s="98"/>
+      <c r="L77" s="98"/>
+      <c r="M77" s="98"/>
+      <c r="N77" s="98"/>
+      <c r="O77" s="98"/>
+      <c r="P77" s="98"/>
+      <c r="Q77" s="98"/>
+      <c r="R77" s="99"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6301,27 +6605,27 @@
         <v>2</v>
       </c>
       <c r="B2" s="12">
-        <f>SUM('Product Backlog'!$J1:$J66)</f>
-        <v>129</v>
+        <f>SUM('Product Backlog'!$J1:$J67)</f>
+        <v>132</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D2" s="12">
         <f>B2-SUM($F2:$F$4)+SUM($G2:$G$4)</f>
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E2" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C66,$A2,'Product Backlog'!$J1:$J66)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C67,$A2,'Product Backlog'!$J1:$J67)</f>
         <v>38</v>
       </c>
       <c r="F2" s="12">
-        <f>SUMIFS('Product Backlog'!$J1:$J66,'Product Backlog'!$C1:$C66,$A2,'Product Backlog'!$L1:$L66,"&gt;0")</f>
+        <f>SUMIFS('Product Backlog'!$J1:$J67,'Product Backlog'!$C1:$C67,$A2,'Product Backlog'!$L1:$L67,"&gt;0")</f>
         <v>38</v>
       </c>
       <c r="G2" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C66,$A2,'Product Backlog'!$L1:$L66)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C67,$A2,'Product Backlog'!$L1:$L67)</f>
         <v>35</v>
       </c>
       <c r="H2" s="12"/>
@@ -6339,26 +6643,26 @@
       </c>
       <c r="B3" s="12">
         <f>B2-F2</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C3" s="12">
         <f>C2-E2</f>
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D3" s="12">
         <f>B3-SUM($F3:$F$4)+SUM($G3:$G$4)</f>
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E3" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C66,$A3,'Product Backlog'!$J1:$J66)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C67,$A3,'Product Backlog'!$J1:$J67)</f>
         <v>50</v>
       </c>
       <c r="F3" s="12">
-        <f>SUMIFS('Product Backlog'!$J1:$J66,'Product Backlog'!$C1:$C66,$A3,'Product Backlog'!$L1:$L66,"&gt;0")</f>
+        <f>SUMIFS('Product Backlog'!$J1:$J67,'Product Backlog'!$C1:$C67,$A3,'Product Backlog'!$L1:$L67,"&gt;0")</f>
         <v>46</v>
       </c>
       <c r="G3" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C66,$A3,'Product Backlog'!$L1:$L66)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C67,$A3,'Product Backlog'!$L1:$L67)</f>
         <v>36</v>
       </c>
       <c r="H3" s="12"/>
@@ -6376,26 +6680,26 @@
       </c>
       <c r="B4" s="12">
         <f>B3-F3</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C4" s="12">
         <f>C3-E3</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" s="12">
         <f>B4-SUM($F4:$F$4)+SUM($G4:$G$4)</f>
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E4" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C66,$A4,'Product Backlog'!$J1:$J66)</f>
-        <v>41</v>
+        <f>SUMIF('Product Backlog'!$C1:$C67,$A4,'Product Backlog'!$J1:$J67)</f>
+        <v>44</v>
       </c>
       <c r="F4" s="12">
-        <f>SUMIFS('Product Backlog'!$J1:$J66,'Product Backlog'!$C1:$C66,$A4,'Product Backlog'!$L1:$L66,"&gt;0")</f>
+        <f>SUMIFS('Product Backlog'!$J1:$J67,'Product Backlog'!$C1:$C67,$A4,'Product Backlog'!$L1:$L67,"&gt;0")</f>
         <v>16</v>
       </c>
       <c r="G4" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C66,$A4,'Product Backlog'!$L1:$L66)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C67,$A4,'Product Backlog'!$L1:$L67)</f>
         <v>12</v>
       </c>
       <c r="H4" s="12"/>
@@ -6413,7 +6717,7 @@
       </c>
       <c r="B5" s="12">
         <f>B4-F4</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C5" s="12">
         <f>C4-E4</f>
@@ -6421,7 +6725,7 @@
       </c>
       <c r="D5" s="12">
         <f>B5</f>
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>

--- a/docs/Product backlog.xlsx
+++ b/docs/Product backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="221">
   <si>
     <t>GoRoffaGo</t>
   </si>
@@ -2171,11 +2171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1417581760"/>
-        <c:axId val="-1417579584"/>
+        <c:axId val="1048243312"/>
+        <c:axId val="1048244944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1417581760"/>
+        <c:axId val="1048243312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2209,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1417579584"/>
+        <c:crossAx val="1048244944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2217,7 +2217,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1417579584"/>
+        <c:axId val="1048244944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2260,7 +2260,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1417581760"/>
+        <c:crossAx val="1048243312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="35"/>
@@ -3482,7 +3482,7 @@
   <dimension ref="A1:IV77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3761,7 +3761,9 @@
       <c r="J10" s="38">
         <v>1</v>
       </c>
-      <c r="K10" s="38"/>
+      <c r="K10" s="38" t="s">
+        <v>53</v>
+      </c>
       <c r="L10" s="38"/>
       <c r="M10" s="40" t="s">
         <v>30</v>

--- a/docs/Product backlog.xlsx
+++ b/docs/Product backlog.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="244">
   <si>
     <t>GoRoffaGo</t>
   </si>
@@ -748,6 +748,21 @@
   </si>
   <si>
     <t>Alle spellen moeten in eindproduct aanwezig zijn.</t>
+  </si>
+  <si>
+    <t>Titorial</t>
+  </si>
+  <si>
+    <t>Als speler wil ik een tutorial zien zodat ik weet wat ik kan doen in het spel.</t>
+  </si>
+  <si>
+    <t>Maak bij de eerste paar stappen een uitleg en opdracht over de programma kaarten.</t>
+  </si>
+  <si>
+    <t>Eerste stappen moet informatie zichtbaar zijn met een opdracht.</t>
+  </si>
+  <si>
+    <t>Game3-wishlist</t>
   </si>
 </sst>
 </file>
@@ -2026,13 +2041,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>46</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -2102,13 +2117,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96</c:v>
+                  <c:v>98</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>47</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -2178,13 +2193,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>134</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>58</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1</c:v>
@@ -2204,11 +2219,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-1436724112"/>
-        <c:axId val="-1436732816"/>
+        <c:axId val="501412096"/>
+        <c:axId val="501424608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1436724112"/>
+        <c:axId val="501412096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2257,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1436732816"/>
+        <c:crossAx val="501424608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2250,7 +2265,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1436732816"/>
+        <c:axId val="501424608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2293,7 +2308,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1436724112"/>
+        <c:crossAx val="501412096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="35"/>
@@ -3512,10 +3527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV78"/>
+  <dimension ref="A1:IV79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5809,7 +5824,7 @@
     </row>
     <row r="52" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="36">
-        <f t="shared" ref="A52:A62" si="1">A51+1</f>
+        <f t="shared" ref="A52:A63" si="1">A51+1</f>
         <v>30</v>
       </c>
       <c r="B52" s="41" t="s">
@@ -6132,43 +6147,40 @@
       <c r="IU53" s="99"/>
       <c r="IV53" s="99"/>
     </row>
-    <row r="54" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="68">
-        <f>A52+1</f>
-        <v>31</v>
-      </c>
+    <row r="54" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="103"/>
       <c r="B54" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="70">
+      <c r="C54" s="66">
         <v>4</v>
       </c>
-      <c r="D54" s="71" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="71" t="s">
-        <v>47</v>
-      </c>
-      <c r="F54" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="G54" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="H54" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="I54" s="70"/>
-      <c r="J54" s="70">
+      <c r="D54" s="65" t="s">
+        <v>243</v>
+      </c>
+      <c r="E54" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="F54" s="65" t="s">
+        <v>240</v>
+      </c>
+      <c r="G54" s="65" t="s">
+        <v>241</v>
+      </c>
+      <c r="H54" s="65" t="s">
+        <v>242</v>
+      </c>
+      <c r="I54" s="66"/>
+      <c r="J54" s="66">
         <v>2</v>
       </c>
-      <c r="K54" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="L54" s="70">
+      <c r="K54" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="L54" s="66">
         <v>2</v>
       </c>
-      <c r="M54" s="72" t="s">
+      <c r="M54" s="67" t="s">
         <v>52</v>
       </c>
       <c r="N54" s="15"/>
@@ -6176,42 +6188,280 @@
       <c r="P54" s="16"/>
       <c r="Q54" s="16"/>
       <c r="R54" s="17"/>
+      <c r="S54" s="99"/>
+      <c r="T54" s="99"/>
+      <c r="U54" s="99"/>
+      <c r="V54" s="99"/>
+      <c r="W54" s="99"/>
+      <c r="X54" s="99"/>
+      <c r="Y54" s="99"/>
+      <c r="Z54" s="99"/>
+      <c r="AA54" s="99"/>
+      <c r="AB54" s="99"/>
+      <c r="AC54" s="99"/>
+      <c r="AD54" s="99"/>
+      <c r="AE54" s="99"/>
+      <c r="AF54" s="99"/>
+      <c r="AG54" s="99"/>
+      <c r="AH54" s="99"/>
+      <c r="AI54" s="99"/>
+      <c r="AJ54" s="99"/>
+      <c r="AK54" s="99"/>
+      <c r="AL54" s="99"/>
+      <c r="AM54" s="99"/>
+      <c r="AN54" s="99"/>
+      <c r="AO54" s="99"/>
+      <c r="AP54" s="99"/>
+      <c r="AQ54" s="99"/>
+      <c r="AR54" s="99"/>
+      <c r="AS54" s="99"/>
+      <c r="AT54" s="99"/>
+      <c r="AU54" s="99"/>
+      <c r="AV54" s="99"/>
+      <c r="AW54" s="99"/>
+      <c r="AX54" s="99"/>
+      <c r="AY54" s="99"/>
+      <c r="AZ54" s="99"/>
+      <c r="BA54" s="99"/>
+      <c r="BB54" s="99"/>
+      <c r="BC54" s="99"/>
+      <c r="BD54" s="99"/>
+      <c r="BE54" s="99"/>
+      <c r="BF54" s="99"/>
+      <c r="BG54" s="99"/>
+      <c r="BH54" s="99"/>
+      <c r="BI54" s="99"/>
+      <c r="BJ54" s="99"/>
+      <c r="BK54" s="99"/>
+      <c r="BL54" s="99"/>
+      <c r="BM54" s="99"/>
+      <c r="BN54" s="99"/>
+      <c r="BO54" s="99"/>
+      <c r="BP54" s="99"/>
+      <c r="BQ54" s="99"/>
+      <c r="BR54" s="99"/>
+      <c r="BS54" s="99"/>
+      <c r="BT54" s="99"/>
+      <c r="BU54" s="99"/>
+      <c r="BV54" s="99"/>
+      <c r="BW54" s="99"/>
+      <c r="BX54" s="99"/>
+      <c r="BY54" s="99"/>
+      <c r="BZ54" s="99"/>
+      <c r="CA54" s="99"/>
+      <c r="CB54" s="99"/>
+      <c r="CC54" s="99"/>
+      <c r="CD54" s="99"/>
+      <c r="CE54" s="99"/>
+      <c r="CF54" s="99"/>
+      <c r="CG54" s="99"/>
+      <c r="CH54" s="99"/>
+      <c r="CI54" s="99"/>
+      <c r="CJ54" s="99"/>
+      <c r="CK54" s="99"/>
+      <c r="CL54" s="99"/>
+      <c r="CM54" s="99"/>
+      <c r="CN54" s="99"/>
+      <c r="CO54" s="99"/>
+      <c r="CP54" s="99"/>
+      <c r="CQ54" s="99"/>
+      <c r="CR54" s="99"/>
+      <c r="CS54" s="99"/>
+      <c r="CT54" s="99"/>
+      <c r="CU54" s="99"/>
+      <c r="CV54" s="99"/>
+      <c r="CW54" s="99"/>
+      <c r="CX54" s="99"/>
+      <c r="CY54" s="99"/>
+      <c r="CZ54" s="99"/>
+      <c r="DA54" s="99"/>
+      <c r="DB54" s="99"/>
+      <c r="DC54" s="99"/>
+      <c r="DD54" s="99"/>
+      <c r="DE54" s="99"/>
+      <c r="DF54" s="99"/>
+      <c r="DG54" s="99"/>
+      <c r="DH54" s="99"/>
+      <c r="DI54" s="99"/>
+      <c r="DJ54" s="99"/>
+      <c r="DK54" s="99"/>
+      <c r="DL54" s="99"/>
+      <c r="DM54" s="99"/>
+      <c r="DN54" s="99"/>
+      <c r="DO54" s="99"/>
+      <c r="DP54" s="99"/>
+      <c r="DQ54" s="99"/>
+      <c r="DR54" s="99"/>
+      <c r="DS54" s="99"/>
+      <c r="DT54" s="99"/>
+      <c r="DU54" s="99"/>
+      <c r="DV54" s="99"/>
+      <c r="DW54" s="99"/>
+      <c r="DX54" s="99"/>
+      <c r="DY54" s="99"/>
+      <c r="DZ54" s="99"/>
+      <c r="EA54" s="99"/>
+      <c r="EB54" s="99"/>
+      <c r="EC54" s="99"/>
+      <c r="ED54" s="99"/>
+      <c r="EE54" s="99"/>
+      <c r="EF54" s="99"/>
+      <c r="EG54" s="99"/>
+      <c r="EH54" s="99"/>
+      <c r="EI54" s="99"/>
+      <c r="EJ54" s="99"/>
+      <c r="EK54" s="99"/>
+      <c r="EL54" s="99"/>
+      <c r="EM54" s="99"/>
+      <c r="EN54" s="99"/>
+      <c r="EO54" s="99"/>
+      <c r="EP54" s="99"/>
+      <c r="EQ54" s="99"/>
+      <c r="ER54" s="99"/>
+      <c r="ES54" s="99"/>
+      <c r="ET54" s="99"/>
+      <c r="EU54" s="99"/>
+      <c r="EV54" s="99"/>
+      <c r="EW54" s="99"/>
+      <c r="EX54" s="99"/>
+      <c r="EY54" s="99"/>
+      <c r="EZ54" s="99"/>
+      <c r="FA54" s="99"/>
+      <c r="FB54" s="99"/>
+      <c r="FC54" s="99"/>
+      <c r="FD54" s="99"/>
+      <c r="FE54" s="99"/>
+      <c r="FF54" s="99"/>
+      <c r="FG54" s="99"/>
+      <c r="FH54" s="99"/>
+      <c r="FI54" s="99"/>
+      <c r="FJ54" s="99"/>
+      <c r="FK54" s="99"/>
+      <c r="FL54" s="99"/>
+      <c r="FM54" s="99"/>
+      <c r="FN54" s="99"/>
+      <c r="FO54" s="99"/>
+      <c r="FP54" s="99"/>
+      <c r="FQ54" s="99"/>
+      <c r="FR54" s="99"/>
+      <c r="FS54" s="99"/>
+      <c r="FT54" s="99"/>
+      <c r="FU54" s="99"/>
+      <c r="FV54" s="99"/>
+      <c r="FW54" s="99"/>
+      <c r="FX54" s="99"/>
+      <c r="FY54" s="99"/>
+      <c r="FZ54" s="99"/>
+      <c r="GA54" s="99"/>
+      <c r="GB54" s="99"/>
+      <c r="GC54" s="99"/>
+      <c r="GD54" s="99"/>
+      <c r="GE54" s="99"/>
+      <c r="GF54" s="99"/>
+      <c r="GG54" s="99"/>
+      <c r="GH54" s="99"/>
+      <c r="GI54" s="99"/>
+      <c r="GJ54" s="99"/>
+      <c r="GK54" s="99"/>
+      <c r="GL54" s="99"/>
+      <c r="GM54" s="99"/>
+      <c r="GN54" s="99"/>
+      <c r="GO54" s="99"/>
+      <c r="GP54" s="99"/>
+      <c r="GQ54" s="99"/>
+      <c r="GR54" s="99"/>
+      <c r="GS54" s="99"/>
+      <c r="GT54" s="99"/>
+      <c r="GU54" s="99"/>
+      <c r="GV54" s="99"/>
+      <c r="GW54" s="99"/>
+      <c r="GX54" s="99"/>
+      <c r="GY54" s="99"/>
+      <c r="GZ54" s="99"/>
+      <c r="HA54" s="99"/>
+      <c r="HB54" s="99"/>
+      <c r="HC54" s="99"/>
+      <c r="HD54" s="99"/>
+      <c r="HE54" s="99"/>
+      <c r="HF54" s="99"/>
+      <c r="HG54" s="99"/>
+      <c r="HH54" s="99"/>
+      <c r="HI54" s="99"/>
+      <c r="HJ54" s="99"/>
+      <c r="HK54" s="99"/>
+      <c r="HL54" s="99"/>
+      <c r="HM54" s="99"/>
+      <c r="HN54" s="99"/>
+      <c r="HO54" s="99"/>
+      <c r="HP54" s="99"/>
+      <c r="HQ54" s="99"/>
+      <c r="HR54" s="99"/>
+      <c r="HS54" s="99"/>
+      <c r="HT54" s="99"/>
+      <c r="HU54" s="99"/>
+      <c r="HV54" s="99"/>
+      <c r="HW54" s="99"/>
+      <c r="HX54" s="99"/>
+      <c r="HY54" s="99"/>
+      <c r="HZ54" s="99"/>
+      <c r="IA54" s="99"/>
+      <c r="IB54" s="99"/>
+      <c r="IC54" s="99"/>
+      <c r="ID54" s="99"/>
+      <c r="IE54" s="99"/>
+      <c r="IF54" s="99"/>
+      <c r="IG54" s="99"/>
+      <c r="IH54" s="99"/>
+      <c r="II54" s="99"/>
+      <c r="IJ54" s="99"/>
+      <c r="IK54" s="99"/>
+      <c r="IL54" s="99"/>
+      <c r="IM54" s="99"/>
+      <c r="IN54" s="99"/>
+      <c r="IO54" s="99"/>
+      <c r="IP54" s="99"/>
+      <c r="IQ54" s="99"/>
+      <c r="IR54" s="99"/>
+      <c r="IS54" s="99"/>
+      <c r="IT54" s="99"/>
+      <c r="IU54" s="99"/>
+      <c r="IV54" s="99"/>
     </row>
     <row r="55" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="68">
-        <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="B55" s="73" t="s">
-        <v>25</v>
+        <f>A52+1</f>
+        <v>31</v>
+      </c>
+      <c r="B55" s="69" t="s">
+        <v>39</v>
       </c>
       <c r="C55" s="70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D55" s="71" t="s">
         <v>11</v>
       </c>
       <c r="E55" s="71" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="F55" s="71" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="G55" s="71" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="H55" s="71" t="s">
-        <v>176</v>
+        <v>50</v>
       </c>
       <c r="I55" s="70"/>
       <c r="J55" s="70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K55" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L55" s="70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M55" s="72" t="s">
         <v>52</v>
@@ -6222,10 +6472,10 @@
       <c r="Q55" s="16"/>
       <c r="R55" s="17"/>
     </row>
-    <row r="56" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:256" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="68">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B56" s="73" t="s">
         <v>25</v>
@@ -6237,26 +6487,26 @@
         <v>11</v>
       </c>
       <c r="E56" s="71" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F56" s="71" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G56" s="71" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H56" s="71" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I56" s="70"/>
       <c r="J56" s="70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K56" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L56" s="70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M56" s="72" t="s">
         <v>52</v>
@@ -6270,7 +6520,7 @@
     <row r="57" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="68">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B57" s="73" t="s">
         <v>25</v>
@@ -6282,16 +6532,16 @@
         <v>11</v>
       </c>
       <c r="E57" s="71" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F57" s="71" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G57" s="71" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H57" s="71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="I57" s="70"/>
       <c r="J57" s="70">
@@ -6315,7 +6565,7 @@
     <row r="58" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="68">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B58" s="73" t="s">
         <v>25</v>
@@ -6327,26 +6577,26 @@
         <v>11</v>
       </c>
       <c r="E58" s="71" t="s">
-        <v>88</v>
+        <v>181</v>
       </c>
       <c r="F58" s="71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G58" s="71" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H58" s="71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I58" s="70"/>
       <c r="J58" s="70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K58" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L58" s="70">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M58" s="72" t="s">
         <v>52</v>
@@ -6357,12 +6607,12 @@
       <c r="Q58" s="16"/>
       <c r="R58" s="17"/>
     </row>
-    <row r="59" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="68">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="B59" s="74" t="s">
+        <v>35</v>
+      </c>
+      <c r="B59" s="73" t="s">
         <v>25</v>
       </c>
       <c r="C59" s="70">
@@ -6372,29 +6622,29 @@
         <v>11</v>
       </c>
       <c r="E59" s="71" t="s">
-        <v>188</v>
+        <v>88</v>
       </c>
       <c r="F59" s="71" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G59" s="71" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H59" s="71" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="I59" s="70"/>
       <c r="J59" s="70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K59" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L59" s="70">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M59" s="72" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="N59" s="15"/>
       <c r="O59" s="16"/>
@@ -6402,44 +6652,44 @@
       <c r="Q59" s="16"/>
       <c r="R59" s="17"/>
     </row>
-    <row r="60" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="68">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="B60" s="75" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="B60" s="74" t="s">
+        <v>25</v>
       </c>
       <c r="C60" s="70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" s="71" t="s">
         <v>11</v>
       </c>
       <c r="E60" s="71" t="s">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="F60" s="71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G60" s="71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H60" s="71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I60" s="70"/>
       <c r="J60" s="70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K60" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L60" s="70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M60" s="72" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="N60" s="15"/>
       <c r="O60" s="16"/>
@@ -6450,10 +6700,10 @@
     <row r="61" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="68">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="B61" s="76" t="s">
-        <v>39</v>
+        <v>37</v>
+      </c>
+      <c r="B61" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="C61" s="70">
         <v>4</v>
@@ -6462,26 +6712,26 @@
         <v>11</v>
       </c>
       <c r="E61" s="71" t="s">
-        <v>195</v>
+        <v>79</v>
       </c>
       <c r="F61" s="71" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G61" s="71" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H61" s="71" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I61" s="70"/>
       <c r="J61" s="70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K61" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L61" s="70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M61" s="72" t="s">
         <v>52</v>
@@ -6492,13 +6742,13 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="17"/>
     </row>
-    <row r="62" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:256" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="68">
         <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B62" s="76" t="s">
         <v>39</v>
-      </c>
-      <c r="B62" s="77" t="s">
-        <v>34</v>
       </c>
       <c r="C62" s="70">
         <v>4</v>
@@ -6507,26 +6757,26 @@
         <v>11</v>
       </c>
       <c r="E62" s="71" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F62" s="71" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G62" s="71" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H62" s="71" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I62" s="70"/>
       <c r="J62" s="70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K62" s="71" t="s">
         <v>83</v>
       </c>
       <c r="L62" s="70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M62" s="72" t="s">
         <v>52</v>
@@ -6537,42 +6787,43 @@
       <c r="Q62" s="16"/>
       <c r="R62" s="17"/>
     </row>
-    <row r="63" spans="1:256" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:256" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="68">
-        <v>40</v>
-      </c>
-      <c r="B63" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="78">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B63" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="70">
         <v>4</v>
       </c>
-      <c r="D63" s="79" t="s">
+      <c r="D63" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E63" s="79" t="s">
-        <v>203</v>
-      </c>
-      <c r="F63" s="79" t="s">
-        <v>204</v>
-      </c>
-      <c r="G63" s="79" t="s">
-        <v>205</v>
-      </c>
-      <c r="H63" s="79" t="s">
-        <v>206</v>
-      </c>
-      <c r="I63" s="78"/>
-      <c r="J63" s="78">
-        <v>5</v>
+      <c r="E63" s="71" t="s">
+        <v>199</v>
+      </c>
+      <c r="F63" s="71" t="s">
+        <v>200</v>
+      </c>
+      <c r="G63" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="H63" s="71" t="s">
+        <v>202</v>
+      </c>
+      <c r="I63" s="70"/>
+      <c r="J63" s="70">
+        <v>1</v>
       </c>
       <c r="K63" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="L63" s="78">
-        <v>5</v>
-      </c>
-      <c r="M63" s="80" t="s">
+      <c r="L63" s="70">
+        <v>1</v>
+      </c>
+      <c r="M63" s="72" t="s">
         <v>52</v>
       </c>
       <c r="N63" s="15"/>
@@ -6581,42 +6832,42 @@
       <c r="Q63" s="16"/>
       <c r="R63" s="17"/>
     </row>
-    <row r="64" spans="1:256" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="81">
-        <v>41</v>
-      </c>
-      <c r="B64" s="82" t="s">
-        <v>39</v>
-      </c>
-      <c r="C64" s="83">
+    <row r="64" spans="1:256" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="68">
+        <v>40</v>
+      </c>
+      <c r="B64" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="78">
         <v>4</v>
       </c>
-      <c r="D64" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="E64" s="84" t="s">
-        <v>207</v>
-      </c>
-      <c r="F64" s="85" t="s">
-        <v>225</v>
-      </c>
-      <c r="G64" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="H64" s="85" t="s">
-        <v>230</v>
-      </c>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85">
-        <v>4</v>
-      </c>
-      <c r="K64" s="86" t="s">
-        <v>232</v>
-      </c>
-      <c r="L64" s="85">
-        <v>4</v>
-      </c>
-      <c r="M64" s="87" t="s">
+      <c r="D64" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" s="79" t="s">
+        <v>203</v>
+      </c>
+      <c r="F64" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="G64" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="H64" s="79" t="s">
+        <v>206</v>
+      </c>
+      <c r="I64" s="78"/>
+      <c r="J64" s="78">
+        <v>5</v>
+      </c>
+      <c r="K64" s="71" t="s">
+        <v>83</v>
+      </c>
+      <c r="L64" s="78">
+        <v>5</v>
+      </c>
+      <c r="M64" s="80" t="s">
         <v>52</v>
       </c>
       <c r="N64" s="15"/>
@@ -6625,42 +6876,42 @@
       <c r="Q64" s="16"/>
       <c r="R64" s="17"/>
     </row>
-    <row r="65" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="88">
-        <v>42</v>
-      </c>
-      <c r="B65" s="77" t="s">
-        <v>34</v>
-      </c>
-      <c r="C65" s="86">
+    <row r="65" spans="1:18" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="81">
+        <v>41</v>
+      </c>
+      <c r="B65" s="82" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="83">
         <v>4</v>
       </c>
-      <c r="D65" s="86" t="s">
+      <c r="D65" s="84" t="s">
         <v>207</v>
       </c>
-      <c r="E65" s="86" t="s">
-        <v>219</v>
-      </c>
-      <c r="F65" s="86" t="s">
-        <v>222</v>
-      </c>
-      <c r="G65" s="86" t="s">
-        <v>223</v>
-      </c>
-      <c r="H65" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="I65" s="86"/>
-      <c r="J65" s="86">
+      <c r="E65" s="84" t="s">
+        <v>207</v>
+      </c>
+      <c r="F65" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="G65" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="H65" s="85" t="s">
+        <v>230</v>
+      </c>
+      <c r="I65" s="85"/>
+      <c r="J65" s="85">
         <v>4</v>
       </c>
       <c r="K65" s="86" t="s">
-        <v>51</v>
-      </c>
-      <c r="L65" s="86">
-        <v>6</v>
-      </c>
-      <c r="M65" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="L65" s="85">
+        <v>4</v>
+      </c>
+      <c r="M65" s="87" t="s">
         <v>52</v>
       </c>
       <c r="N65" s="15"/>
@@ -6671,7 +6922,7 @@
     </row>
     <row r="66" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="88">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B66" s="77" t="s">
         <v>34</v>
@@ -6680,29 +6931,29 @@
         <v>4</v>
       </c>
       <c r="D66" s="86" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E66" s="86" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F66" s="86" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G66" s="86" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H66" s="86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I66" s="86"/>
       <c r="J66" s="86">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K66" s="86" t="s">
-        <v>232</v>
+        <v>51</v>
       </c>
       <c r="L66" s="86">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M66" s="89" t="s">
         <v>52</v>
@@ -6713,20 +6964,44 @@
       <c r="Q66" s="16"/>
       <c r="R66" s="17"/>
     </row>
-    <row r="67" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="88"/>
-      <c r="B67" s="86"/>
-      <c r="C67" s="86"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="86"/>
-      <c r="F67" s="86"/>
-      <c r="G67" s="86"/>
-      <c r="H67" s="86"/>
+    <row r="67" spans="1:18" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="88">
+        <v>43</v>
+      </c>
+      <c r="B67" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="86">
+        <v>4</v>
+      </c>
+      <c r="D67" s="86" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="86" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="G67" s="86" t="s">
+        <v>227</v>
+      </c>
+      <c r="H67" s="86" t="s">
+        <v>228</v>
+      </c>
       <c r="I67" s="86"/>
-      <c r="J67" s="86"/>
-      <c r="K67" s="86"/>
-      <c r="L67" s="86"/>
-      <c r="M67" s="89"/>
+      <c r="J67" s="86">
+        <v>0</v>
+      </c>
+      <c r="K67" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="L67" s="86">
+        <v>8</v>
+      </c>
+      <c r="M67" s="89" t="s">
+        <v>52</v>
+      </c>
       <c r="N67" s="15"/>
       <c r="O67" s="16"/>
       <c r="P67" s="16"/>
@@ -6734,59 +7009,59 @@
       <c r="R67" s="17"/>
     </row>
     <row r="68" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="90"/>
-      <c r="B68" s="91"/>
-      <c r="C68" s="91"/>
-      <c r="D68" s="91"/>
-      <c r="E68" s="91"/>
-      <c r="F68" s="91"/>
-      <c r="G68" s="91"/>
-      <c r="H68" s="91"/>
-      <c r="I68" s="91"/>
-      <c r="J68" s="91"/>
-      <c r="K68" s="91"/>
-      <c r="L68" s="91"/>
-      <c r="M68" s="92"/>
+      <c r="A68" s="88"/>
+      <c r="B68" s="86"/>
+      <c r="C68" s="86"/>
+      <c r="D68" s="86"/>
+      <c r="E68" s="86"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="H68" s="86"/>
+      <c r="I68" s="86"/>
+      <c r="J68" s="86"/>
+      <c r="K68" s="86"/>
+      <c r="L68" s="86"/>
+      <c r="M68" s="89"/>
       <c r="N68" s="15"/>
       <c r="O68" s="16"/>
       <c r="P68" s="16"/>
       <c r="Q68" s="16"/>
       <c r="R68" s="17"/>
     </row>
-    <row r="69" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="93"/>
-      <c r="B69" s="94"/>
-      <c r="C69" s="94"/>
-      <c r="D69" s="94"/>
-      <c r="E69" s="94"/>
-      <c r="F69" s="94"/>
-      <c r="G69" s="94"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="94"/>
-      <c r="J69" s="94"/>
-      <c r="K69" s="94"/>
-      <c r="L69" s="94"/>
-      <c r="M69" s="94"/>
-      <c r="N69" s="16"/>
+    <row r="69" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="90"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="91"/>
+      <c r="D69" s="91"/>
+      <c r="E69" s="91"/>
+      <c r="F69" s="91"/>
+      <c r="G69" s="91"/>
+      <c r="H69" s="91"/>
+      <c r="I69" s="91"/>
+      <c r="J69" s="91"/>
+      <c r="K69" s="91"/>
+      <c r="L69" s="91"/>
+      <c r="M69" s="92"/>
+      <c r="N69" s="15"/>
       <c r="O69" s="16"/>
       <c r="P69" s="16"/>
       <c r="Q69" s="16"/>
       <c r="R69" s="17"/>
     </row>
     <row r="70" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="95"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-      <c r="D70" s="16"/>
-      <c r="E70" s="16"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="16"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="16"/>
-      <c r="K70" s="16"/>
-      <c r="L70" s="16"/>
-      <c r="M70" s="16"/>
+      <c r="A70" s="93"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="94"/>
+      <c r="F70" s="94"/>
+      <c r="G70" s="94"/>
+      <c r="H70" s="94"/>
+      <c r="I70" s="94"/>
+      <c r="J70" s="94"/>
+      <c r="K70" s="94"/>
+      <c r="L70" s="94"/>
+      <c r="M70" s="94"/>
       <c r="N70" s="16"/>
       <c r="O70" s="16"/>
       <c r="P70" s="16"/>
@@ -6934,24 +7209,44 @@
       <c r="R77" s="17"/>
     </row>
     <row r="78" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="96"/>
-      <c r="B78" s="97"/>
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
-      <c r="E78" s="97"/>
-      <c r="F78" s="97"/>
-      <c r="G78" s="97"/>
-      <c r="H78" s="97"/>
-      <c r="I78" s="97"/>
-      <c r="J78" s="97"/>
-      <c r="K78" s="97"/>
-      <c r="L78" s="97"/>
-      <c r="M78" s="97"/>
-      <c r="N78" s="97"/>
-      <c r="O78" s="97"/>
-      <c r="P78" s="97"/>
-      <c r="Q78" s="97"/>
-      <c r="R78" s="98"/>
+      <c r="A78" s="95"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="16"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="16"/>
+      <c r="O78" s="16"/>
+      <c r="P78" s="16"/>
+      <c r="Q78" s="16"/>
+      <c r="R78" s="17"/>
+    </row>
+    <row r="79" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="96"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="97"/>
+      <c r="H79" s="97"/>
+      <c r="I79" s="97"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="97"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="97"/>
+      <c r="O79" s="97"/>
+      <c r="P79" s="97"/>
+      <c r="Q79" s="97"/>
+      <c r="R79" s="98"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7015,27 +7310,27 @@
         <v>2</v>
       </c>
       <c r="B2" s="12">
-        <f>SUM('Product Backlog'!$J1:$J68)</f>
-        <v>134</v>
+        <f>SUM('Product Backlog'!$J1:$J69)</f>
+        <v>136</v>
       </c>
       <c r="C2" s="12">
         <f>B2</f>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D2" s="12">
         <f>B2-SUM($F2:$F$4)+SUM($G2:$G$4)</f>
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E2" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A2,'Product Backlog'!$J1:$J68)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A2,'Product Backlog'!$J1:$J69)</f>
         <v>38</v>
       </c>
       <c r="F2" s="12">
-        <f>SUMIFS('Product Backlog'!$J1:$J68,'Product Backlog'!$C1:$C68,$A2,'Product Backlog'!$L1:$L68,"&gt;0")</f>
+        <f>SUMIFS('Product Backlog'!$J1:$J69,'Product Backlog'!$C1:$C69,$A2,'Product Backlog'!$L1:$L69,"&gt;0")</f>
         <v>38</v>
       </c>
       <c r="G2" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A2,'Product Backlog'!$L1:$L68)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A2,'Product Backlog'!$L1:$L69)</f>
         <v>37</v>
       </c>
       <c r="H2" s="12"/>
@@ -7053,26 +7348,26 @@
       </c>
       <c r="B3" s="12">
         <f>B2-F2</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="12">
         <f>C2-E2</f>
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D3" s="12">
         <f>B3-SUM($F3:$F$4)+SUM($G3:$G$4)</f>
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E3" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A3,'Product Backlog'!$J1:$J68)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A3,'Product Backlog'!$J1:$J69)</f>
         <v>50</v>
       </c>
       <c r="F3" s="12">
-        <f>SUMIFS('Product Backlog'!$J1:$J68,'Product Backlog'!$C1:$C68,$A3,'Product Backlog'!$L1:$L68,"&gt;0")</f>
+        <f>SUMIFS('Product Backlog'!$J1:$J69,'Product Backlog'!$C1:$C69,$A3,'Product Backlog'!$L1:$L69,"&gt;0")</f>
         <v>49</v>
       </c>
       <c r="G3" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A3,'Product Backlog'!$L1:$L68)</f>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A3,'Product Backlog'!$L1:$L69)</f>
         <v>39</v>
       </c>
       <c r="H3" s="12"/>
@@ -7090,27 +7385,27 @@
       </c>
       <c r="B4" s="12">
         <f>B3-F3</f>
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C4" s="12">
         <f>C3-E3</f>
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D4" s="12">
         <f>B4-SUM($F4:$F$4)+SUM($G4:$G$4)</f>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A4,'Product Backlog'!$J1:$J68)</f>
-        <v>46</v>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A4,'Product Backlog'!$J1:$J69)</f>
+        <v>48</v>
       </c>
       <c r="F4" s="12">
-        <f>SUMIFS('Product Backlog'!$J1:$J68,'Product Backlog'!$C1:$C68,$A4,'Product Backlog'!$L1:$L68,"&gt;0")</f>
-        <v>46</v>
+        <f>SUMIFS('Product Backlog'!$J1:$J69,'Product Backlog'!$C1:$C69,$A4,'Product Backlog'!$L1:$L69,"&gt;0")</f>
+        <v>48</v>
       </c>
       <c r="G4" s="12">
-        <f>SUMIF('Product Backlog'!$C1:$C68,$A4,'Product Backlog'!$L1:$L68)</f>
-        <v>57</v>
+        <f>SUMIF('Product Backlog'!$C1:$C69,$A4,'Product Backlog'!$L1:$L69)</f>
+        <v>59</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="95"/>
